--- a/phone number generator.xlsx
+++ b/phone number generator.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79106\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79106\Desktop\GeakBrains\1 Четверть\Знакомство с языком Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F7CDC-4895-4320-8FAE-879217D93D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180CDDC6-8181-40CD-A53F-52E0D7577B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1365" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="594">
   <si>
     <t>Aaron</t>
   </si>
@@ -1679,6 +1680,138 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Languages and linguistics</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Performing arts</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Visual arts</t>
+  </si>
+  <si>
+    <t>Anthropology</t>
+  </si>
+  <si>
+    <t>Archaeology</t>
+  </si>
+  <si>
+    <t>Area studies</t>
+  </si>
+  <si>
+    <t>Cultural and ethnic studies</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Gender and sexuality studies</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Political science</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Space sciences</t>
+  </si>
+  <si>
+    <t>Earth sciences</t>
+  </si>
+  <si>
+    <t>Life sciences</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Computer sciences</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Systems science</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Architecture and design</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Divinity</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Environmental studies and Forestry</t>
+  </si>
+  <si>
+    <t>Family and consumer science</t>
+  </si>
+  <si>
+    <t>Health sciences</t>
+  </si>
+  <si>
+    <t>Human physical performance and recreation</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Journalism, media studies and communication</t>
+  </si>
+  <si>
+    <t>Library and museum studies</t>
+  </si>
+  <si>
+    <t>Military sciences</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Social work</t>
+  </si>
+  <si>
+    <t>Transportation</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +2009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1938,21 +2071,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2026,6 +2150,16 @@
         </left>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2040,10 +2174,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44E073BD-0EE2-436A-95D7-E9CD1E6191BB}" name="Таблица1" displayName="Таблица1" ref="F2:G256" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44E073BD-0EE2-436A-95D7-E9CD1E6191BB}" name="Таблица1" displayName="Таблица1" ref="F2:G256" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="F2:G256" xr:uid="{44E073BD-0EE2-436A-95D7-E9CD1E6191BB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4B738884-4DE0-4F86-915E-9049514F3F2C}" name="Surname" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4B738884-4DE0-4F86-915E-9049514F3F2C}" name="Surname" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9A238738-E67A-44BC-B9E4-0928E3D9B104}" name="number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2054,7 +2188,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{964ADA92-FD8E-45F1-B7EE-DCD11F2722A7}" name="Таблица2" displayName="Таблица2" ref="A1:B316" totalsRowShown="0">
   <autoFilter ref="A1:B316" xr:uid="{964ADA92-FD8E-45F1-B7EE-DCD11F2722A7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A9E84F03-D826-42E6-B052-798932E1BBF1}" name="имя" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A9E84F03-D826-42E6-B052-798932E1BBF1}" name="имя" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2FE2E521-44CD-4BA4-9EB8-836BB821138C}" name="номер "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2324,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S331"/>
+  <dimension ref="A1:X331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S331"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2471,7 @@
     <col min="6" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>316</v>
       </c>
@@ -2345,7 +2479,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2363,22 +2497,26 @@
       </c>
       <c r="M2" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Leah</v>
+        <v>Alexis</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hoggarth</v>
+        <v>Longman</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+73063550261</v>
+        <v>+72911402564</v>
       </c>
       <c r="S2" t="str">
         <f ca="1">CONCATENATE(L2,"|",M2,"|",N2,"|",O2,"|")</f>
-        <v>1|Leah|Hoggarth|+73063550261|</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>1|Alexis|Longman|+72911402564|</v>
+      </c>
+      <c r="X2" t="str">
+        <f ca="1">_xlfn.CONCAT(M2," ",N2)</f>
+        <v>Alexis Longman</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>258</v>
       </c>
@@ -2396,22 +2534,26 @@
       </c>
       <c r="M3" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Pamela</v>
+        <v>Albert</v>
       </c>
       <c r="N3" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Anderson</v>
+        <v>Paterson</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O66" ca="1" si="0">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+71919365603</v>
+        <v>+73251143548</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S66" ca="1" si="1">CONCATENATE(L3,"|",M3,"|",N3,"|",O3,"|")</f>
-        <v>2|Pamela|Anderson|+71919365603|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2|Albert|Paterson|+73251143548|</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X31" ca="1" si="2">_xlfn.CONCAT(M3," ",N3)</f>
+        <v>Albert Paterson</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2429,22 +2571,26 @@
       </c>
       <c r="M4" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jacob</v>
+        <v>Barbara</v>
       </c>
       <c r="N4" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dodson</v>
+        <v>Macduff</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73233690819</v>
+        <v>+78433234302</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3|Jacob|Dodson|+73233690819|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3|Barbara|Macduff|+78433234302|</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Barbara Macduff</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>243</v>
       </c>
@@ -2462,22 +2608,26 @@
       </c>
       <c r="M5" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Walter</v>
+        <v>Jack</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Miln</v>
+        <v>Fraser</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79563997099</v>
+        <v>+71126530129</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4|Walter|Miln|+79563997099|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>4|Jack|Fraser|+71126530129|</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Jack Fraser</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>221</v>
       </c>
@@ -2495,7 +2645,7 @@
       </c>
       <c r="M6" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Austin</v>
+        <v>Molly</v>
       </c>
       <c r="N6" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
@@ -2503,14 +2653,18 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73699726255</v>
+        <v>+78013092506</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5|Austin|Blomfield|+73699726255|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5|Molly|Blomfield|+78013092506|</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Molly Blomfield</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -2528,22 +2682,26 @@
       </c>
       <c r="M7" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Mackenzie</v>
+        <v>Michelle</v>
       </c>
       <c r="N7" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Pass</v>
+        <v>Francis</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79042627712</v>
+        <v>+71083675605</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6|Mackenzie|Pass|+79042627712|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6|Michelle|Francis|+71083675605|</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Michelle Francis</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -2561,22 +2719,26 @@
       </c>
       <c r="M8" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Walter</v>
+        <v>Rachel</v>
       </c>
       <c r="N8" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wayne</v>
+        <v>Bosworth</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+77079153171</v>
+        <v>+78456283126</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7|Walter|Wayne|+77079153171|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7|Rachel|Bosworth|+78456283126|</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rachel Bosworth</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>238</v>
       </c>
@@ -2594,22 +2756,26 @@
       </c>
       <c r="M9" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lewis</v>
+        <v>Ryan</v>
       </c>
       <c r="N9" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Calhoun</v>
+        <v>Murphy</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73627771464</v>
+        <v>+74506653781</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8|Lewis|Calhoun|+73627771464|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8|Ryan|Murphy|+74506653781|</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ryan Murphy</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>115</v>
       </c>
@@ -2627,22 +2793,26 @@
       </c>
       <c r="M10" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Priscilla</v>
+        <v>Rebecca</v>
       </c>
       <c r="N10" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gustman</v>
+        <v>Forster</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75165997625</v>
+        <v>+76055455543</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9|Priscilla|Gustman|+75165997625|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9|Rebecca|Forster|+76055455543|</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rebecca Forster</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -2660,22 +2830,26 @@
       </c>
       <c r="M11" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lauren</v>
+        <v>Connor</v>
       </c>
       <c r="N11" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Audley</v>
+        <v>Carroll</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75136663701</v>
+        <v>+74572318000</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10|Lauren|Audley|+75136663701|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>10|Connor|Carroll|+74572318000|</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Connor Carroll</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>261</v>
       </c>
@@ -2693,22 +2867,26 @@
       </c>
       <c r="M12" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Herbert</v>
+        <v>Sean</v>
       </c>
       <c r="N12" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bradberry</v>
+        <v>Flannagan</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+76734041080</v>
+        <v>+73856254471</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11|Herbert|Bradberry|+76734041080|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>11|Sean|Flannagan|+73856254471|</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Sean Flannagan</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>218</v>
       </c>
@@ -2726,22 +2904,26 @@
       </c>
       <c r="M13" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lucy</v>
+        <v>Dennis</v>
       </c>
       <c r="N13" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Holmes</v>
+        <v>Jerome</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71512506537</v>
+        <v>+71359978388</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12|Lucy|Holmes|+71512506537|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12|Dennis|Jerome|+71359978388|</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Dennis Jerome</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
@@ -2759,22 +2941,26 @@
       </c>
       <c r="M14" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Delia</v>
+        <v>Barbara</v>
       </c>
       <c r="N14" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oliver</v>
+        <v>Bootman</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78042849555</v>
+        <v>+71283034640</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13|Delia|Oliver|+78042849555|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>13|Barbara|Bootman|+71283034640|</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Barbara Bootman</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
@@ -2792,22 +2978,26 @@
       </c>
       <c r="M15" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Laura</v>
+        <v>Albert</v>
       </c>
       <c r="N15" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Keat</v>
+        <v>Day</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+74429831234</v>
+        <v>+77978554482</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>14|Laura|Keat|+74429831234|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>14|Albert|Day|+77978554482|</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Albert Day</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2825,22 +3015,26 @@
       </c>
       <c r="M16" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Agatha</v>
+        <v>Yvonne</v>
       </c>
       <c r="N16" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Chapman</v>
+        <v>Samuels</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79686057881</v>
+        <v>+79038338103</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>15|Agatha|Chapman|+79686057881|</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>15|Yvonne|Samuels|+79038338103|</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yvonne Samuels</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>292</v>
       </c>
@@ -2858,22 +3052,26 @@
       </c>
       <c r="M17" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Julia</v>
+        <v>Antonio</v>
       </c>
       <c r="N17" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Page</v>
+        <v>Holiday</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73507206185</v>
+        <v>+73274381503</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16|Julia|Page|+73507206185|</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>16|Antonio|Holiday|+73274381503|</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Antonio Holiday</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2891,22 +3089,26 @@
       </c>
       <c r="M18" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Devin</v>
+        <v>Philip</v>
       </c>
       <c r="N18" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Albertson</v>
+        <v>Mercer</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75686128271</v>
+        <v>+77624624845</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>17|Devin|Albertson|+75686128271|</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>17|Philip|Mercer|+77624624845|</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Philip Mercer</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -2924,22 +3126,26 @@
       </c>
       <c r="M19" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Walter</v>
+        <v>Carl</v>
       </c>
       <c r="N19" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gardner</v>
+        <v>Raleigh</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73189012709</v>
+        <v>+76398515156</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>18|Walter|Gardner|+73189012709|</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>18|Carl|Raleigh|+76398515156|</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Carl Raleigh</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>267</v>
       </c>
@@ -2957,22 +3163,26 @@
       </c>
       <c r="M20" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Gloria</v>
+        <v>Jaden</v>
       </c>
       <c r="N20" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Neal</v>
+        <v>Carey</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79379901732</v>
+        <v>+75699559795</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>19|Gloria|Neal|+79379901732|</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>19|Jaden|Carey|+75699559795|</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Jaden Carey</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>199</v>
       </c>
@@ -2990,22 +3200,26 @@
       </c>
       <c r="M21" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nicole</v>
+        <v>Avery</v>
       </c>
       <c r="N21" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Milton</v>
+        <v>Walkman</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71156060863</v>
+        <v>+75015988040</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20|Nicole|Milton|+71156060863|</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>20|Avery|Walkman|+75015988040|</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Avery Walkman</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>204</v>
       </c>
@@ -3023,22 +3237,26 @@
       </c>
       <c r="M22" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Maya</v>
+        <v>Kevin</v>
       </c>
       <c r="N22" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Foster</v>
+        <v>Cramer</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+76213411090</v>
+        <v>+79158029839</v>
       </c>
       <c r="S22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>21|Maya|Foster|+76213411090|</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>21|Kevin|Cramer|+79158029839|</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Kevin Cramer</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3056,22 +3274,26 @@
       </c>
       <c r="M23" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Noah</v>
+        <v>Aidan</v>
       </c>
       <c r="N23" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bosworth</v>
+        <v>Fitzgerald</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75286451215</v>
+        <v>+79944908649</v>
       </c>
       <c r="S23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22|Noah|Bosworth|+75286451215|</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22|Aidan|Fitzgerald|+79944908649|</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Aidan Fitzgerald</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
@@ -3089,22 +3311,26 @@
       </c>
       <c r="M24" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marjorie</v>
+        <v>Brooke</v>
       </c>
       <c r="N24" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Faber</v>
+        <v>Oldman</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71189318657</v>
+        <v>+75369596749</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23|Marjorie|Faber|+71189318657|</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>23|Brooke|Oldman|+75369596749|</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Brooke Oldman</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -3122,22 +3348,26 @@
       </c>
       <c r="M25" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Simon</v>
+        <v>Hunter</v>
       </c>
       <c r="N25" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wayne</v>
+        <v>Aldridge</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+74706919351</v>
+        <v>+73317051872</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>24|Simon|Wayne|+74706919351|</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24|Hunter|Aldridge|+73317051872|</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Hunter Aldridge</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,22 +3385,26 @@
       </c>
       <c r="M26" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Isabella</v>
+        <v>Martin</v>
       </c>
       <c r="N26" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Samuels</v>
+        <v>Taft</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73126430881</v>
+        <v>+72771094264</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>25|Isabella|Samuels|+73126430881|</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25|Martin|Taft|+72771094264|</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Martin Taft</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>235</v>
       </c>
@@ -3188,22 +3422,26 @@
       </c>
       <c r="M27" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Riley</v>
+        <v>Timothy</v>
       </c>
       <c r="N27" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gustman</v>
+        <v>Edwards</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71474967835</v>
+        <v>+73879841700</v>
       </c>
       <c r="S27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>26|Riley|Gustman|+71474967835|</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>26|Timothy|Edwards|+73879841700|</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Timothy Edwards</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
@@ -3221,22 +3459,26 @@
       </c>
       <c r="M28" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jada</v>
+        <v>Leslie</v>
       </c>
       <c r="N28" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gate</v>
+        <v>Waller</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+74610134079</v>
+        <v>+72571994087</v>
       </c>
       <c r="S28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>27|Jada|Gate|+74610134079|</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27|Leslie|Waller|+72571994087|</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Leslie Waller</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3254,22 +3496,26 @@
       </c>
       <c r="M29" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sybil</v>
+        <v>Thomas</v>
       </c>
       <c r="N29" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Douglas</v>
+        <v>Coleman</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+72495237865</v>
+        <v>+74431806781</v>
       </c>
       <c r="S29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>28|Sybil|Douglas|+72495237865|</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>28|Thomas|Coleman|+74431806781|</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Thomas Coleman</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -3287,22 +3533,26 @@
       </c>
       <c r="M30" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Carlos</v>
+        <v>Gabriel</v>
       </c>
       <c r="N30" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Macey</v>
+        <v>Taft</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+72087481810</v>
+        <v>+75174898334</v>
       </c>
       <c r="S30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>29|Carlos|Macey|+72087481810|</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>29|Gabriel|Taft|+75174898334|</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Gabriel Taft</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -3320,22 +3570,26 @@
       </c>
       <c r="M31" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Joyce</v>
+        <v>Horace</v>
       </c>
       <c r="N31" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Macey</v>
+        <v>Roger</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78149105540</v>
+        <v>+78221298192</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30|Joyce|Macey|+78149105540|</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30|Horace|Roger|+78221298192|</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Horace Roger</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -3353,19 +3607,19 @@
       </c>
       <c r="M32" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Rodrigo</v>
+        <v>Reginald</v>
       </c>
       <c r="N32" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Forman</v>
+        <v>Miers</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75609145669</v>
+        <v>+77410815936</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>31|Rodrigo|Forman|+75609145669|</v>
+        <v>31|Reginald|Miers|+77410815936|</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3386,22 +3640,22 @@
       </c>
       <c r="M33" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Makayla</v>
+        <v>Thomas</v>
       </c>
       <c r="N33" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hawkins</v>
+        <v>Eddington</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+74111465773</v>
+        <v>+75003496111</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>32|Makayla|Hawkins|+74111465773|</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>32|Thomas|Eddington|+75003496111|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>260</v>
       </c>
@@ -3419,19 +3673,19 @@
       </c>
       <c r="M34" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lynn</v>
+        <v>Christine</v>
       </c>
       <c r="N34" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Birch</v>
+        <v>Howard</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73166013340</v>
+        <v>+72097565815</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>33|Lynn|Birch|+73166013340|</v>
+        <v>33|Christine|Howard|+72097565815|</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3452,19 +3706,19 @@
       </c>
       <c r="M35" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kaitlyn</v>
+        <v>Penelope</v>
       </c>
       <c r="N35" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wallace</v>
+        <v>Charlson</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+77714498230</v>
+        <v>+71886301108</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>34|Kaitlyn|Wallace|+77714498230|</v>
+        <v>34|Penelope|Charlson|+71886301108|</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3485,19 +3739,19 @@
       </c>
       <c r="M36" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Melanie</v>
+        <v>Haley</v>
       </c>
       <c r="N36" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Salomon</v>
+        <v>Miers</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78359079021</v>
+        <v>+71441308559</v>
       </c>
       <c r="S36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>35|Melanie|Salomon|+78359079021|</v>
+        <v>35|Haley|Miers|+71441308559|</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3518,19 +3772,19 @@
       </c>
       <c r="M37" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lily</v>
+        <v>Sarah</v>
       </c>
       <c r="N37" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Tracey</v>
+        <v>Cramer</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79287091371</v>
+        <v>+79478482580</v>
       </c>
       <c r="S37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>36|Lily|Tracey|+79287091371|</v>
+        <v>36|Sarah|Cramer|+79478482580|</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3551,19 +3805,19 @@
       </c>
       <c r="M38" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Delia</v>
+        <v>Dylan</v>
       </c>
       <c r="N38" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Parkinson</v>
+        <v>Creighton</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+76301211307</v>
+        <v>+75813167419</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>37|Delia|Parkinson|+76301211307|</v>
+        <v>37|Dylan|Creighton|+75813167419|</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -3584,19 +3838,19 @@
       </c>
       <c r="M39" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alfred</v>
+        <v>Adelina</v>
       </c>
       <c r="N39" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lamberts</v>
+        <v>Galbraith</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78472535247</v>
+        <v>+71597432173</v>
       </c>
       <c r="S39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>38|Alfred|Lamberts|+78472535247|</v>
+        <v>38|Adelina|Galbraith|+71597432173|</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3617,19 +3871,19 @@
       </c>
       <c r="M40" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Luke</v>
+        <v>Caroline</v>
       </c>
       <c r="N40" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Webster</v>
+        <v>Stanley</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73489924448</v>
+        <v>+72657315908</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>39|Luke|Webster|+73489924448|</v>
+        <v>39|Caroline|Stanley|+72657315908|</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -3650,22 +3904,22 @@
       </c>
       <c r="M41" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Amelia</v>
+        <v>Jenna</v>
       </c>
       <c r="N41" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Eddington</v>
+        <v>Babcock</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78017991043</v>
+        <v>+74429927035</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>40|Amelia|Eddington|+78017991043|</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>40|Jenna|Babcock|+74429927035|</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>173</v>
       </c>
@@ -3683,22 +3937,22 @@
       </c>
       <c r="M42" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jeffery</v>
+        <v>Juan</v>
       </c>
       <c r="N42" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wayne</v>
+        <v>Cramer</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+74365111954</v>
+        <v>+73927589777</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>41|Jeffery|Wayne|+74365111954|</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>41|Juan|Cramer|+73927589777|</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>154</v>
       </c>
@@ -3716,19 +3970,19 @@
       </c>
       <c r="M43" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Carl</v>
+        <v>Abigail</v>
       </c>
       <c r="N43" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oldman</v>
+        <v>Dunce</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71127873164</v>
+        <v>+75545645052</v>
       </c>
       <c r="S43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>42|Carl|Oldman|+71127873164|</v>
+        <v>42|Abigail|Dunce|+75545645052|</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -3749,19 +4003,19 @@
       </c>
       <c r="M44" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Fiona</v>
+        <v>Sean</v>
       </c>
       <c r="N44" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Brickman</v>
+        <v>Fraser</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75685770954</v>
+        <v>+71796496633</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>43|Fiona|Brickman|+75685770954|</v>
+        <v>43|Sean|Fraser|+71796496633|</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -3782,19 +4036,19 @@
       </c>
       <c r="M45" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Zachary</v>
+        <v>Cole</v>
       </c>
       <c r="N45" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Davidson</v>
+        <v>Ayrton</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+76617742807</v>
+        <v>+73945169384</v>
       </c>
       <c r="S45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>44|Zachary|Davidson|+76617742807|</v>
+        <v>44|Cole|Ayrton|+73945169384|</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -3815,19 +4069,19 @@
       </c>
       <c r="M46" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Taylor</v>
+        <v>Philip</v>
       </c>
       <c r="N46" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Longman</v>
+        <v>Tracey</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+72154092884</v>
+        <v>+74351574019</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>45|Taylor|Longman|+72154092884|</v>
+        <v>45|Philip|Tracey|+74351574019|</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -3848,19 +4102,19 @@
       </c>
       <c r="M47" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jackson</v>
+        <v>Jake</v>
       </c>
       <c r="N47" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lewin</v>
+        <v>Mackenzie</v>
       </c>
       <c r="O47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73313267797</v>
+        <v>+71041881514</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>46|Jackson|Lewin|+73313267797|</v>
+        <v>46|Jake|Mackenzie|+71041881514|</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -3881,19 +4135,19 @@
       </c>
       <c r="M48" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sophia</v>
+        <v>Lucy</v>
       </c>
       <c r="N48" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hoggarth</v>
+        <v>Donovan</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79305088112</v>
+        <v>+72728828487</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>47|Sophia|Hoggarth|+79305088112|</v>
+        <v>47|Lucy|Donovan|+72728828487|</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -3914,19 +4168,19 @@
       </c>
       <c r="M49" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Michelle</v>
+        <v>Nathan</v>
       </c>
       <c r="N49" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lawman</v>
+        <v>Cramer</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+77419086410</v>
+        <v>+77831647497</v>
       </c>
       <c r="S49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>48|Michelle|Lawman|+77419086410|</v>
+        <v>48|Nathan|Cramer|+77831647497|</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -3947,19 +4201,19 @@
       </c>
       <c r="M50" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Mabel</v>
+        <v>Jane</v>
       </c>
       <c r="N50" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Samuels</v>
+        <v>Michaelson</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73079264373</v>
+        <v>+78076488433</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>49|Mabel|Samuels|+73079264373|</v>
+        <v>49|Jane|Michaelson|+78076488433|</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -3980,19 +4234,19 @@
       </c>
       <c r="M51" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Linda</v>
+        <v>Margaret</v>
       </c>
       <c r="N51" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mansfield</v>
+        <v>Winter</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+74438724143</v>
+        <v>+71121151612</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>50|Linda|Mansfield|+74438724143|</v>
+        <v>50|Margaret|Winter|+71121151612|</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -4013,19 +4267,19 @@
       </c>
       <c r="M52" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jeremiah</v>
+        <v>Delia</v>
       </c>
       <c r="N52" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Erickson</v>
+        <v>Alsopp</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71750225171</v>
+        <v>+72529054309</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>51|Jeremiah|Erickson|+71750225171|</v>
+        <v>51|Delia|Alsopp|+72529054309|</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -4046,22 +4300,22 @@
       </c>
       <c r="M53" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Audrey</v>
+        <v>Melissa</v>
       </c>
       <c r="N53" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Becker</v>
+        <v>Sheldon</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71016588596</v>
+        <v>+78631150840</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>52|Audrey|Becker|+71016588596|</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>52|Melissa|Sheldon|+78631150840|</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>307</v>
       </c>
@@ -4079,22 +4333,22 @@
       </c>
       <c r="M54" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Curtis</v>
+        <v>Mason</v>
       </c>
       <c r="N54" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Richards</v>
+        <v>Ralphs</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+76931235816</v>
+        <v>+75554119476</v>
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>53|Curtis|Richards|+76931235816|</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>53|Mason|Ralphs|+75554119476|</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -4112,19 +4366,19 @@
       </c>
       <c r="M55" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Matthew</v>
+        <v>Ralph</v>
       </c>
       <c r="N55" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kennett</v>
+        <v>Kendal</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78537788515</v>
+        <v>+74018895595</v>
       </c>
       <c r="S55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>54|Matthew|Kennett|+78537788515|</v>
+        <v>54|Ralph|Kendal|+74018895595|</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -4145,19 +4399,19 @@
       </c>
       <c r="M56" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Susan</v>
+        <v>Brooke</v>
       </c>
       <c r="N56" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Miller</v>
+        <v>Kirk</v>
       </c>
       <c r="O56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+77791532686</v>
+        <v>+77698727369</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>55|Susan|Miller|+77791532686|</v>
+        <v>55|Brooke|Kirk|+77698727369|</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4178,19 +4432,19 @@
       </c>
       <c r="M57" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Allison</v>
+        <v>Shirley</v>
       </c>
       <c r="N57" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Walkman</v>
+        <v>MacAlister</v>
       </c>
       <c r="O57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+72357255215</v>
+        <v>+76834154745</v>
       </c>
       <c r="S57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>56|Allison|Walkman|+72357255215|</v>
+        <v>56|Shirley|MacAlister|+76834154745|</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -4211,19 +4465,19 @@
       </c>
       <c r="M58" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Diego</v>
+        <v>Kayla</v>
       </c>
       <c r="N58" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Nash</v>
+        <v>Howard</v>
       </c>
       <c r="O58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71746181654</v>
+        <v>+77170236676</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>57|Diego|Nash|+71746181654|</v>
+        <v>57|Kayla|Howard|+77170236676|</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -4244,19 +4498,19 @@
       </c>
       <c r="M59" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Joyce</v>
+        <v>Freda</v>
       </c>
       <c r="N59" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Brooks</v>
+        <v>Harrison</v>
       </c>
       <c r="O59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73297178320</v>
+        <v>+77276553681</v>
       </c>
       <c r="S59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>58|Joyce|Brooks|+73297178320|</v>
+        <v>58|Freda|Harrison|+77276553681|</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -4277,19 +4531,19 @@
       </c>
       <c r="M60" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Landon</v>
+        <v>Alyssa</v>
       </c>
       <c r="N60" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Neal</v>
+        <v>WifKinson</v>
       </c>
       <c r="O60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+71377377669</v>
+        <v>+73038513616</v>
       </c>
       <c r="S60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>59|Landon|Neal|+71377377669|</v>
+        <v>59|Alyssa|WifKinson|+73038513616|</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -4310,19 +4564,19 @@
       </c>
       <c r="M61" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hunter</v>
+        <v>Sybil</v>
       </c>
       <c r="N61" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Owen</v>
+        <v>Stevenson</v>
       </c>
       <c r="O61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+78442101894</v>
+        <v>+76679459593</v>
       </c>
       <c r="S61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>60|Hunter|Owen|+78442101894|</v>
+        <v>60|Sybil|Stevenson|+76679459593|</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -4343,19 +4597,19 @@
       </c>
       <c r="M62" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jeffery</v>
+        <v>Nancy</v>
       </c>
       <c r="N62" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wesley</v>
+        <v>Livingston</v>
       </c>
       <c r="O62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+75998674610</v>
+        <v>+75673789898</v>
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>61|Jeffery|Wesley|+75998674610|</v>
+        <v>61|Nancy|Livingston|+75673789898|</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -4376,19 +4630,19 @@
       </c>
       <c r="M63" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Harold</v>
+        <v>Rosalind</v>
       </c>
       <c r="N63" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bawerman</v>
+        <v>Croftoon</v>
       </c>
       <c r="O63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79443097897</v>
+        <v>+75238715181</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>62|Harold|Bawerman|+79443097897|</v>
+        <v>62|Rosalind|Croftoon|+75238715181|</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -4409,19 +4663,19 @@
       </c>
       <c r="M64" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Pauline</v>
+        <v>Devin</v>
       </c>
       <c r="N64" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Douglas</v>
+        <v>Gimson</v>
       </c>
       <c r="O64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+73747433719</v>
+        <v>+74681303605</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>63|Pauline|Douglas|+73747433719|</v>
+        <v>63|Devin|Gimson|+74681303605|</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -4442,22 +4696,22 @@
       </c>
       <c r="M65" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Chloe</v>
+        <v>Arianna</v>
       </c>
       <c r="N65" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Roger</v>
+        <v>Kelly</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+76692892523</v>
+        <v>+71283145079</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>64|Chloe|Roger|+76692892523|</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+        <v>64|Arianna|Kelly|+71283145079|</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>72</v>
       </c>
@@ -4475,19 +4729,19 @@
       </c>
       <c r="M66" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Angelina</v>
+        <v>Joseph</v>
       </c>
       <c r="N66" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Archibald</v>
+        <v>Duncan</v>
       </c>
       <c r="O66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>+79744109543</v>
+        <v>+73538961921</v>
       </c>
       <c r="S66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>65|Angelina|Archibald|+79744109543|</v>
+        <v>65|Joseph|Duncan|+73538961921|</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -4508,19 +4762,19 @@
       </c>
       <c r="M67" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Anita</v>
+        <v>Daniel</v>
       </c>
       <c r="N67" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kelly</v>
+        <v>Clifford</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O130" ca="1" si="2">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+74620449683</v>
+        <f t="shared" ref="O67:O130" ca="1" si="3">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
+        <v>+78754228834</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" ref="S67:S130" ca="1" si="3">CONCATENATE(L67,"|",M67,"|",N67,"|",O67,"|")</f>
-        <v>66|Anita|Kelly|+74620449683|</v>
+        <f t="shared" ref="S67:S130" ca="1" si="4">CONCATENATE(L67,"|",M67,"|",N67,"|",O67,"|")</f>
+        <v>66|Daniel|Clifford|+78754228834|</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -4541,19 +4795,19 @@
       </c>
       <c r="M68" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jonathan</v>
+        <v>Ava</v>
       </c>
       <c r="N68" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bradshaw</v>
+        <v>MacAdam</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79753085060</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75729493318</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>67|Jonathan|Bradshaw|+79753085060|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>67|Ava|MacAdam|+75729493318|</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -4574,19 +4828,19 @@
       </c>
       <c r="M69" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>David</v>
+        <v>Adelina</v>
       </c>
       <c r="N69" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Douglas</v>
+        <v>Atcheson</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76782157126</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+74423026188</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>68|David|Douglas|+76782157126|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68|Adelina|Atcheson|+74423026188|</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="24" x14ac:dyDescent="0.25">
@@ -4607,19 +4861,19 @@
       </c>
       <c r="M70" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nancy</v>
+        <v>Emily</v>
       </c>
       <c r="N70" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Howard</v>
+        <v>Blomfield</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+72942323563</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+76906716438</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>69|Nancy|Howard|+72942323563|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>69|Emily|Blomfield|+76906716438|</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -4640,19 +4894,19 @@
       </c>
       <c r="M71" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kayla</v>
+        <v>Ada</v>
       </c>
       <c r="N71" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Forman</v>
+        <v>Little</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73024914445</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+77098407030</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>70|Kayla|Forman|+73024914445|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70|Ada|Little|+77098407030|</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -4673,19 +4927,19 @@
       </c>
       <c r="M72" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Haley</v>
+        <v>Gavin</v>
       </c>
       <c r="N72" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ferguson</v>
+        <v>Derrick</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+78897199100</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79323644795</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>71|Haley|Ferguson|+78897199100|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71|Gavin|Derrick|+79323644795|</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -4706,19 +4960,19 @@
       </c>
       <c r="M73" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marjorie</v>
+        <v>Amber</v>
       </c>
       <c r="N73" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lamberts</v>
+        <v>Cramer</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77001147071</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73713608151</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>72|Marjorie|Lamberts|+77001147071|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>72|Amber|Cramer|+73713608151|</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -4739,19 +4993,19 @@
       </c>
       <c r="M74" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alfred</v>
+        <v>Makayla</v>
       </c>
       <c r="N74" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oldman</v>
+        <v>Sykes</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73756117625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73790812915</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>73|Alfred|Oldman|+73756117625|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>73|Makayla|Sykes|+73790812915|</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -4772,19 +5026,19 @@
       </c>
       <c r="M75" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kyle</v>
+        <v>Curtis</v>
       </c>
       <c r="N75" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mason</v>
+        <v>Barnes</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75921903258</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+77754744791</v>
       </c>
       <c r="S75" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>74|Kyle|Mason|+75921903258|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74|Curtis|Barnes|+77754744791|</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -4805,19 +5059,19 @@
       </c>
       <c r="M76" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>John</v>
+        <v>Joseph</v>
       </c>
       <c r="N76" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Duncan</v>
+        <v>Nyman</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75453599583</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+77462703944</v>
       </c>
       <c r="S76" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>75|John|Duncan|+75453599583|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>75|Joseph|Nyman|+77462703944|</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -4838,19 +5092,19 @@
       </c>
       <c r="M77" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>William</v>
+        <v>Makayla</v>
       </c>
       <c r="N77" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Farmer</v>
+        <v>Dean</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+78305843731</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79703059971</v>
       </c>
       <c r="S77" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>76|William|Farmer|+78305843731|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>76|Makayla|Dean|+79703059971|</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -4871,19 +5125,19 @@
       </c>
       <c r="M78" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marisa</v>
+        <v>Oliver</v>
       </c>
       <c r="N78" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Longman</v>
+        <v>Harrison</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76427170862</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71596337505</v>
       </c>
       <c r="S78" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>77|Marisa|Longman|+76427170862|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>77|Oliver|Harrison|+71596337505|</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -4904,19 +5158,19 @@
       </c>
       <c r="M79" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lauren</v>
+        <v>Michelle</v>
       </c>
       <c r="N79" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Roberts</v>
+        <v>Larkins</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79454215922</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78512057911</v>
       </c>
       <c r="S79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>78|Lauren|Roberts|+79454215922|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>78|Michelle|Larkins|+78512057911|</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -4937,19 +5191,19 @@
       </c>
       <c r="M80" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Emma</v>
+        <v>Morgan</v>
       </c>
       <c r="N80" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Shackley</v>
+        <v>Stephen</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+78430496892</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+74941538618</v>
       </c>
       <c r="S80" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>79|Emma|Shackley|+78430496892|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>79|Morgan|Stephen|+74941538618|</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -4970,19 +5224,19 @@
       </c>
       <c r="M81" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marjorie</v>
+        <v>Emily</v>
       </c>
       <c r="N81" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Croftoon</v>
+        <v>Wainwright</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71804094183</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79788354714</v>
       </c>
       <c r="S81" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>80|Marjorie|Croftoon|+71804094183|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>80|Emily|Wainwright|+79788354714|</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -5003,19 +5257,19 @@
       </c>
       <c r="M82" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Raymond</v>
+        <v>James</v>
       </c>
       <c r="N82" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gill</v>
+        <v>Otis</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73029880853</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72728274127</v>
       </c>
       <c r="S82" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>81|Raymond|Gill|+73029880853|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>81|James|Otis|+72728274127|</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -5036,19 +5290,19 @@
       </c>
       <c r="M83" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Antonio</v>
+        <v>Jennifer</v>
       </c>
       <c r="N83" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gimson</v>
+        <v>Mansfield</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+74828765062</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72674830390</v>
       </c>
       <c r="S83" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>82|Antonio|Gimson|+74828765062|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>82|Jennifer|Mansfield|+72674830390|</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -5069,19 +5323,19 @@
       </c>
       <c r="M84" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Brian</v>
+        <v>Sandra</v>
       </c>
       <c r="N84" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Watson</v>
+        <v>Dean</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77508807205</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78909844059</v>
       </c>
       <c r="S84" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>83|Brian|Watson|+77508807205|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>83|Sandra|Dean|+78909844059|</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -5102,19 +5356,19 @@
       </c>
       <c r="M85" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Virginia</v>
+        <v>Jocelyn</v>
       </c>
       <c r="N85" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Porter</v>
+        <v>Saunder</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71160249844</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73751844707</v>
       </c>
       <c r="S85" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84|Virginia|Porter|+71160249844|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>84|Jocelyn|Saunder|+73751844707|</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -5135,19 +5389,19 @@
       </c>
       <c r="M86" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ariana</v>
+        <v>Sofia</v>
       </c>
       <c r="N86" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Conors</v>
+        <v>Attwood</v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79127283538</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+74614221222</v>
       </c>
       <c r="S86" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>85|Ariana|Conors|+79127283538|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>85|Sofia|Attwood|+74614221222|</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -5168,19 +5422,19 @@
       </c>
       <c r="M87" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jane</v>
+        <v>Katherine</v>
       </c>
       <c r="N87" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Taylor</v>
+        <v>Roberts</v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75508329337</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71691783473</v>
       </c>
       <c r="S87" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>86|Jane|Taylor|+75508329337|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>86|Katherine|Roberts|+71691783473|</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -5201,19 +5455,19 @@
       </c>
       <c r="M88" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alexa</v>
+        <v>Nicole</v>
       </c>
       <c r="N88" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Philips</v>
+        <v>Berrington</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75802181520</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71049207149</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>87|Alexa|Philips|+75802181520|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>87|Nicole|Berrington|+71049207149|</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -5234,19 +5488,19 @@
       </c>
       <c r="M89" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Leonars</v>
+        <v>Hugh</v>
       </c>
       <c r="N89" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Owen</v>
+        <v>Kennett</v>
       </c>
       <c r="O89" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75331048550</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71663753943</v>
       </c>
       <c r="S89" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>88|Leonars|Owen|+75331048550|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>88|Hugh|Kennett|+71663753943|</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -5267,19 +5521,19 @@
       </c>
       <c r="M90" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Reginald</v>
+        <v>Bruce</v>
       </c>
       <c r="N90" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Austin</v>
+        <v>Macey</v>
       </c>
       <c r="O90" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73826098648</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79573775042</v>
       </c>
       <c r="S90" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>89|Reginald|Austin|+73826098648|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>89|Bruce|Macey|+79573775042|</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -5300,19 +5554,19 @@
       </c>
       <c r="M91" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ada</v>
+        <v>Stephanie</v>
       </c>
       <c r="N91" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mason</v>
+        <v>Allford</v>
       </c>
       <c r="O91" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71349499148</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79942851025</v>
       </c>
       <c r="S91" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>90|Ada|Mason|+71349499148|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>90|Stephanie|Allford|+79942851025|</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -5333,19 +5587,19 @@
       </c>
       <c r="M92" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Makayla</v>
+        <v>Benjamin</v>
       </c>
       <c r="N92" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Morrison</v>
+        <v>Dean</v>
       </c>
       <c r="O92" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+78125246941</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73403249602</v>
       </c>
       <c r="S92" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>91|Makayla|Morrison|+78125246941|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>91|Benjamin|Dean|+73403249602|</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -5366,19 +5620,19 @@
       </c>
       <c r="M93" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Patricia</v>
+        <v>Matthew</v>
       </c>
       <c r="N93" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Porter</v>
+        <v>Morrison</v>
       </c>
       <c r="O93" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+78420007598</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79639551870</v>
       </c>
       <c r="S93" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>92|Patricia|Porter|+78420007598|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>92|Matthew|Morrison|+79639551870|</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -5399,19 +5653,19 @@
       </c>
       <c r="M94" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alexa</v>
+        <v>Claire</v>
       </c>
       <c r="N94" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Carroll</v>
+        <v>Hardman</v>
       </c>
       <c r="O94" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+78730704765</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75942939264</v>
       </c>
       <c r="S94" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>93|Alexa|Carroll|+78730704765|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93|Claire|Hardman|+75942939264|</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -5432,19 +5686,19 @@
       </c>
       <c r="M95" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Geoffrey</v>
+        <v>Luke</v>
       </c>
       <c r="N95" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fitzgerald</v>
+        <v>Hardman</v>
       </c>
       <c r="O95" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75743937736</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71019768314</v>
       </c>
       <c r="S95" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>94|Geoffrey|Fitzgerald|+75743937736|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>94|Luke|Hardman|+71019768314|</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -5465,19 +5719,19 @@
       </c>
       <c r="M96" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Philip</v>
+        <v>Geoffrey</v>
       </c>
       <c r="N96" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bootman</v>
+        <v>Kingsman</v>
       </c>
       <c r="O96" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+72253108586</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72211515806</v>
       </c>
       <c r="S96" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>95|Philip|Bootman|+72253108586|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>95|Geoffrey|Kingsman|+72211515806|</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -5498,19 +5752,19 @@
       </c>
       <c r="M97" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Cecilia</v>
+        <v>Daniel</v>
       </c>
       <c r="N97" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kirk</v>
+        <v>Morrison</v>
       </c>
       <c r="O97" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+72861575440</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73113972124</v>
       </c>
       <c r="S97" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>96|Cecilia|Kirk|+72861575440|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>96|Daniel|Morrison|+73113972124|</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -5531,19 +5785,19 @@
       </c>
       <c r="M98" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nora</v>
+        <v>Belinda</v>
       </c>
       <c r="N98" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wainwright</v>
+        <v>Paterson</v>
       </c>
       <c r="O98" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79216284737</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78087532968</v>
       </c>
       <c r="S98" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>97|Nora|Wainwright|+79216284737|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>97|Belinda|Paterson|+78087532968|</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -5564,19 +5818,19 @@
       </c>
       <c r="M99" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Mason</v>
+        <v>Beatrice</v>
       </c>
       <c r="N99" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Owen</v>
+        <v>Berrington</v>
       </c>
       <c r="O99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76912924601</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78519363098</v>
       </c>
       <c r="S99" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>98|Mason|Owen|+76912924601|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98|Beatrice|Berrington|+78519363098|</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -5597,19 +5851,19 @@
       </c>
       <c r="M100" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Linda</v>
+        <v>Hailey</v>
       </c>
       <c r="N100" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Cramer</v>
+        <v>Bargeman</v>
       </c>
       <c r="O100" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76080783893</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73586808907</v>
       </c>
       <c r="S100" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>99|Linda|Cramer|+76080783893|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>99|Hailey|Bargeman|+73586808907|</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -5630,19 +5884,19 @@
       </c>
       <c r="M101" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Christine</v>
+        <v>Adelina</v>
       </c>
       <c r="N101" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Blomfield</v>
+        <v>Adrian</v>
       </c>
       <c r="O101" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77710001770</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79410881392</v>
       </c>
       <c r="S101" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>100|Christine|Blomfield|+77710001770|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100|Adelina|Adrian|+79410881392|</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -5663,19 +5917,19 @@
       </c>
       <c r="M102" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alan</v>
+        <v>Jayden</v>
       </c>
       <c r="N102" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Turner</v>
+        <v>Hancock</v>
       </c>
       <c r="O102" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+72762211884</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78190657758</v>
       </c>
       <c r="S102" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>101|Alan|Turner|+72762211884|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>101|Jayden|Hancock|+78190657758|</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -5696,19 +5950,19 @@
       </c>
       <c r="M103" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Rita</v>
+        <v>Hannah</v>
       </c>
       <c r="N103" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Garrison</v>
+        <v>Roger</v>
       </c>
       <c r="O103" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77295242355</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78217776641</v>
       </c>
       <c r="S103" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>102|Rita|Garrison|+77295242355|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>102|Hannah|Roger|+78217776641|</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -5729,19 +5983,19 @@
       </c>
       <c r="M104" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ariana</v>
+        <v>Joseph</v>
       </c>
       <c r="N104" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bosworth</v>
+        <v>Winter</v>
       </c>
       <c r="O104" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+72393278364</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+77643847980</v>
       </c>
       <c r="S104" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>103|Ariana|Bosworth|+72393278364|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>103|Joseph|Winter|+77643847980|</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -5762,19 +6016,19 @@
       </c>
       <c r="M105" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lewis</v>
+        <v>David</v>
       </c>
       <c r="N105" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Jacobson</v>
+        <v>Bosworth</v>
       </c>
       <c r="O105" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+74945934994</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78546421859</v>
       </c>
       <c r="S105" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>104|Lewis|Jacobson|+74945934994|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>104|David|Bosworth|+78546421859|</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -5795,19 +6049,19 @@
       </c>
       <c r="M106" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marisa</v>
+        <v>Catherine</v>
       </c>
       <c r="N106" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Simpson</v>
+        <v>Goldman</v>
       </c>
       <c r="O106" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73820932275</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72214942515</v>
       </c>
       <c r="S106" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>105|Marisa|Simpson|+73820932275|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>105|Catherine|Goldman|+72214942515|</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -5828,19 +6082,19 @@
       </c>
       <c r="M107" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Mildred</v>
+        <v>Madison</v>
       </c>
       <c r="N107" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Backer</v>
+        <v>Ramacey</v>
       </c>
       <c r="O107" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79119377345</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79734418934</v>
       </c>
       <c r="S107" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>106|Mildred|Backer|+79119377345|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>106|Madison|Ramacey|+79734418934|</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -5861,19 +6115,19 @@
       </c>
       <c r="M108" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nicholas</v>
+        <v>Rita</v>
       </c>
       <c r="N108" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Attwood</v>
+        <v>Simon</v>
       </c>
       <c r="O108" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71357816251</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+74748860478</v>
       </c>
       <c r="S108" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>107|Nicholas|Attwood|+71357816251|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>107|Rita|Simon|+74748860478|</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -5894,19 +6148,19 @@
       </c>
       <c r="M109" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Josephine</v>
+        <v>Maya</v>
       </c>
       <c r="N109" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kingsman</v>
+        <v>Wesley</v>
       </c>
       <c r="O109" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77178677973</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75570526013</v>
       </c>
       <c r="S109" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>108|Josephine|Kingsman|+77178677973|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>108|Maya|Wesley|+75570526013|</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -5927,19 +6181,19 @@
       </c>
       <c r="M110" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Michael</v>
+        <v>Sofia</v>
       </c>
       <c r="N110" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Douglas</v>
+        <v>MacDonald</v>
       </c>
       <c r="O110" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77038203442</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79879453321</v>
       </c>
       <c r="S110" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>109|Michael|Douglas|+77038203442|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>109|Sofia|MacDonald|+79879453321|</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -5960,19 +6214,19 @@
       </c>
       <c r="M111" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nathaniel</v>
+        <v>Carter</v>
       </c>
       <c r="N111" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Evans</v>
+        <v>Finch</v>
       </c>
       <c r="O111" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76968074097</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75739998836</v>
       </c>
       <c r="S111" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>110|Nathaniel|Evans|+76968074097|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>110|Carter|Finch|+75739998836|</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -5993,19 +6247,19 @@
       </c>
       <c r="M112" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jackson</v>
+        <v>Haley</v>
       </c>
       <c r="N112" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lawman</v>
+        <v>Dowman</v>
       </c>
       <c r="O112" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77160105097</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72292365103</v>
       </c>
       <c r="S112" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>111|Jackson|Lawman|+77160105097|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>111|Haley|Dowman|+72292365103|</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -6026,19 +6280,19 @@
       </c>
       <c r="M113" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Gilbert</v>
+        <v>Trinity</v>
       </c>
       <c r="N113" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ferguson</v>
+        <v>Farmer</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75033302959</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73620274858</v>
       </c>
       <c r="S113" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>112|Gilbert|Ferguson|+75033302959|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>112|Trinity|Farmer|+73620274858|</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -6059,19 +6313,19 @@
       </c>
       <c r="M114" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Elijah</v>
+        <v>Elizabeth</v>
       </c>
       <c r="N114" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ellington</v>
+        <v>Francis</v>
       </c>
       <c r="O114" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73310791810</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72872916254</v>
       </c>
       <c r="S114" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>113|Elijah|Ellington|+73310791810|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>113|Elizabeth|Francis|+72872916254|</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -6092,19 +6346,19 @@
       </c>
       <c r="M115" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hailey</v>
+        <v>Cody</v>
       </c>
       <c r="N115" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lamberts</v>
+        <v>Howard</v>
       </c>
       <c r="O115" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73300343273</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75681367849</v>
       </c>
       <c r="S115" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>114|Hailey|Lamberts|+73300343273|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>114|Cody|Howard|+75681367849|</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -6125,19 +6379,19 @@
       </c>
       <c r="M116" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kylie</v>
+        <v>Carter</v>
       </c>
       <c r="N116" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wayne</v>
+        <v>Fraser</v>
       </c>
       <c r="O116" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+74304458086</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79969536143</v>
       </c>
       <c r="S116" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>115|Kylie|Wayne|+74304458086|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>115|Carter|Fraser|+79969536143|</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -6158,19 +6412,19 @@
       </c>
       <c r="M117" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Christian</v>
+        <v>Olivia</v>
       </c>
       <c r="N117" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Nicholson</v>
+        <v>Gill</v>
       </c>
       <c r="O117" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+73103515617</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+72051041829</v>
       </c>
       <c r="S117" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>116|Christian|Nicholson|+73103515617|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>116|Olivia|Gill|+72051041829|</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -6191,19 +6445,19 @@
       </c>
       <c r="M118" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dylan</v>
+        <v>Jake</v>
       </c>
       <c r="N118" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Benson</v>
+        <v>Keat</v>
       </c>
       <c r="O118" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76198644161</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78787695783</v>
       </c>
       <c r="S118" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>117|Dylan|Benson|+76198644161|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>117|Jake|Keat|+78787695783|</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -6224,19 +6478,19 @@
       </c>
       <c r="M119" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Miguel</v>
+        <v>Ryan</v>
       </c>
       <c r="N119" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Vaughan</v>
+        <v>Benson</v>
       </c>
       <c r="O119" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71364520982</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+73474106182</v>
       </c>
       <c r="S119" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>118|Miguel|Vaughan|+71364520982|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>118|Ryan|Benson|+73474106182|</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -6257,19 +6511,19 @@
       </c>
       <c r="M120" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Gabrielle</v>
+        <v>Sandra</v>
       </c>
       <c r="N120" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Chandter</v>
+        <v>Gate</v>
       </c>
       <c r="O120" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77927117319</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+77155840559</v>
       </c>
       <c r="S120" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>119|Gabrielle|Chandter|+77927117319|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>119|Sandra|Gate|+77155840559|</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -6290,19 +6544,19 @@
       </c>
       <c r="M121" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Eric</v>
+        <v>Erin</v>
       </c>
       <c r="N121" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Edwards</v>
+        <v>Kennedy</v>
       </c>
       <c r="O121" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79481422426</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75984639273</v>
       </c>
       <c r="S121" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>120|Eric|Edwards|+79481422426|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>120|Erin|Kennedy|+75984639273|</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -6323,19 +6577,19 @@
       </c>
       <c r="M122" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Richard</v>
+        <v>Mabel</v>
       </c>
       <c r="N122" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dickinson</v>
+        <v>Atcheson</v>
       </c>
       <c r="O122" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+72266230652</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+76019547658</v>
       </c>
       <c r="S122" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>121|Richard|Dickinson|+72266230652|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>121|Mabel|Atcheson|+76019547658|</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -6356,19 +6610,19 @@
       </c>
       <c r="M123" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Allison</v>
+        <v>Lucas</v>
       </c>
       <c r="N123" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kennett</v>
+        <v>Kendal</v>
       </c>
       <c r="O123" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75802383105</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79344020441</v>
       </c>
       <c r="S123" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>122|Allison|Kennett|+75802383105|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>122|Lucas|Kendal|+79344020441|</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -6389,19 +6643,19 @@
       </c>
       <c r="M124" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Xavier</v>
+        <v>Abraham</v>
       </c>
       <c r="N124" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Erickson</v>
+        <v>Daniels</v>
       </c>
       <c r="O124" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79579542561</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+75268459008</v>
       </c>
       <c r="S124" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>123|Xavier|Erickson|+79579542561|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>123|Abraham|Daniels|+75268459008|</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -6422,19 +6676,19 @@
       </c>
       <c r="M125" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alise</v>
+        <v>Mabel</v>
       </c>
       <c r="N125" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ward</v>
+        <v>MacAlister</v>
       </c>
       <c r="O125" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+79061875123</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+77988690522</v>
       </c>
       <c r="S125" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>124|Alise|Ward|+79061875123|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>124|Mabel|MacAlister|+77988690522|</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -6455,19 +6709,19 @@
       </c>
       <c r="M126" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Morgan</v>
+        <v>Elizabeth</v>
       </c>
       <c r="N126" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Laird</v>
+        <v>Nathan</v>
       </c>
       <c r="O126" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+77102836491</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71215620450</v>
       </c>
       <c r="S126" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>125|Morgan|Laird|+77102836491|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>125|Elizabeth|Nathan|+71215620450|</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -6488,19 +6742,19 @@
       </c>
       <c r="M127" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sofia</v>
+        <v>Barbara</v>
       </c>
       <c r="N127" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Sykes</v>
+        <v>Parson</v>
       </c>
       <c r="O127" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+76504389177</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+74951659596</v>
       </c>
       <c r="S127" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>126|Sofia|Sykes|+76504389177|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>126|Barbara|Parson|+74951659596|</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -6521,19 +6775,19 @@
       </c>
       <c r="M128" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Carlos</v>
+        <v>Ariana</v>
       </c>
       <c r="N128" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Stanley</v>
+        <v>Attwood</v>
       </c>
       <c r="O128" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71513383586</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+79145901858</v>
       </c>
       <c r="S128" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>127|Carlos|Stanley|+71513383586|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>127|Ariana|Attwood|+79145901858|</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -6554,19 +6808,19 @@
       </c>
       <c r="M129" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ethan</v>
+        <v>Megan</v>
       </c>
       <c r="N129" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Adamson</v>
+        <v>Leapman</v>
       </c>
       <c r="O129" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+71804983707</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+78096264581</v>
       </c>
       <c r="S129" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>128|Ethan|Adamson|+71804983707|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>128|Megan|Leapman|+78096264581|</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -6587,19 +6841,19 @@
       </c>
       <c r="M130" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jennifer</v>
+        <v>Penelope</v>
       </c>
       <c r="N130" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Stanley</v>
+        <v>Walter</v>
       </c>
       <c r="O130" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>+75755321679</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>+71385029679</v>
       </c>
       <c r="S130" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>129|Jennifer|Stanley|+75755321679|</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>129|Penelope|Walter|+71385029679|</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -6620,19 +6874,19 @@
       </c>
       <c r="M131" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Henry</v>
+        <v>Anthony</v>
       </c>
       <c r="N131" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Alsopp</v>
+        <v>Mackenzie</v>
       </c>
       <c r="O131" t="str">
-        <f t="shared" ref="O131:O194" ca="1" si="4">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+78363777079</v>
+        <f t="shared" ref="O131:O194" ca="1" si="5">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
+        <v>+72987996628</v>
       </c>
       <c r="S131" t="str">
-        <f t="shared" ref="S131:S194" ca="1" si="5">CONCATENATE(L131,"|",M131,"|",N131,"|",O131,"|")</f>
-        <v>130|Henry|Alsopp|+78363777079|</v>
+        <f t="shared" ref="S131:S194" ca="1" si="6">CONCATENATE(L131,"|",M131,"|",N131,"|",O131,"|")</f>
+        <v>130|Anthony|Mackenzie|+72987996628|</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -6653,19 +6907,19 @@
       </c>
       <c r="M132" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ethan</v>
+        <v>Alexander</v>
       </c>
       <c r="N132" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Carroll</v>
+        <v>Hodges</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74795145187</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+71744269490</v>
       </c>
       <c r="S132" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>131|Ethan|Carroll|+74795145187|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>131|Alexander|Hodges|+71744269490|</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -6686,19 +6940,19 @@
       </c>
       <c r="M133" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Matthew</v>
+        <v>Lawrence</v>
       </c>
       <c r="N133" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hailey</v>
+        <v>Campbell</v>
       </c>
       <c r="O133" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71821276267</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78013030595</v>
       </c>
       <c r="S133" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>132|Matthew|Hailey|+71821276267|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>132|Lawrence|Campbell|+78013030595|</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -6719,19 +6973,19 @@
       </c>
       <c r="M134" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Catherine</v>
+        <v>Alexander</v>
       </c>
       <c r="N134" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Carey</v>
+        <v>Milton</v>
       </c>
       <c r="O134" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78494075966</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+74086459688</v>
       </c>
       <c r="S134" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>133|Catherine|Carey|+78494075966|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>133|Alexander|Milton|+74086459688|</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -6752,19 +7006,19 @@
       </c>
       <c r="M135" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Howard</v>
+        <v>Dominic</v>
       </c>
       <c r="N135" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Blare</v>
+        <v>Hoggarth</v>
       </c>
       <c r="O135" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78679630047</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77544658145</v>
       </c>
       <c r="S135" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>134|Howard|Blare|+78679630047|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>134|Dominic|Hoggarth|+77544658145|</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -6785,19 +7039,19 @@
       </c>
       <c r="M136" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Makayla</v>
+        <v>Fiona</v>
       </c>
       <c r="N136" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Taft</v>
+        <v>Sheldon</v>
       </c>
       <c r="O136" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78937679451</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78906873650</v>
       </c>
       <c r="S136" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>135|Makayla|Taft|+78937679451|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>135|Fiona|Sheldon|+78906873650|</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -6818,19 +7072,19 @@
       </c>
       <c r="M137" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Virginia</v>
+        <v>Cameron</v>
       </c>
       <c r="N137" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hancock</v>
+        <v>Miller</v>
       </c>
       <c r="O137" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71318384599</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+73046100072</v>
       </c>
       <c r="S137" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>136|Virginia|Hancock|+71318384599|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>136|Cameron|Miller|+73046100072|</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -6851,19 +7105,19 @@
       </c>
       <c r="M138" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alexander</v>
+        <v>Mary</v>
       </c>
       <c r="N138" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dutton</v>
+        <v>Carrington</v>
       </c>
       <c r="O138" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79892899598</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79337363676</v>
       </c>
       <c r="S138" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>137|Alexander|Dutton|+79892899598|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>137|Mary|Carrington|+79337363676|</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -6884,19 +7138,19 @@
       </c>
       <c r="M139" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Natalie</v>
+        <v>Albert</v>
       </c>
       <c r="N139" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Thornton</v>
+        <v>Duncan</v>
       </c>
       <c r="O139" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73093564293</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76510302300</v>
       </c>
       <c r="S139" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>138|Natalie|Thornton|+73093564293|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>138|Albert|Duncan|+76510302300|</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -6917,19 +7171,19 @@
       </c>
       <c r="M140" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jeremiah</v>
+        <v>Lawrence</v>
       </c>
       <c r="N140" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fisher</v>
+        <v>Kennedy</v>
       </c>
       <c r="O140" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74896166066</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79707636235</v>
       </c>
       <c r="S140" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>139|Jeremiah|Fisher|+74896166066|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>139|Lawrence|Kennedy|+79707636235|</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -6950,19 +7204,19 @@
       </c>
       <c r="M141" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Mildred</v>
+        <v>Jocelyn</v>
       </c>
       <c r="N141" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Berrington</v>
+        <v>Simon</v>
       </c>
       <c r="O141" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+76396756022</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76708912191</v>
       </c>
       <c r="S141" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>140|Mildred|Berrington|+76396756022|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>140|Jocelyn|Simon|+76708912191|</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -6983,19 +7237,19 @@
       </c>
       <c r="M142" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Eleanor</v>
+        <v>Elizabeth</v>
       </c>
       <c r="N142" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Holiday</v>
+        <v>Salomon</v>
       </c>
       <c r="O142" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+76180812051</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79181112380</v>
       </c>
       <c r="S142" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>141|Eleanor|Holiday|+76180812051|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>141|Elizabeth|Salomon|+79181112380|</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -7016,19 +7270,19 @@
       </c>
       <c r="M143" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kaylee</v>
+        <v>William</v>
       </c>
       <c r="N143" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bradshaw</v>
+        <v>Higgins</v>
       </c>
       <c r="O143" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77659381219</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77991516504</v>
       </c>
       <c r="S143" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>142|Kaylee|Bradshaw|+77659381219|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>142|William|Higgins|+77991516504|</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -7049,19 +7303,19 @@
       </c>
       <c r="M144" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nathan</v>
+        <v>Angelina</v>
       </c>
       <c r="N144" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hardman</v>
+        <v>Bush</v>
       </c>
       <c r="O144" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78984632473</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72718681360</v>
       </c>
       <c r="S144" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>143|Nathan|Hardman|+78984632473|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>143|Angelina|Bush|+72718681360|</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -7082,19 +7336,19 @@
       </c>
       <c r="M145" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jordan</v>
+        <v>Jayden</v>
       </c>
       <c r="N145" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dowman</v>
+        <v>Archibald</v>
       </c>
       <c r="O145" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74441268758</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77675443416</v>
       </c>
       <c r="S145" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>144|Jordan|Dowman|+74441268758|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>144|Jayden|Archibald|+77675443416|</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -7115,19 +7369,19 @@
       </c>
       <c r="M146" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alex</v>
+        <v>Martin</v>
       </c>
       <c r="N146" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lawman</v>
+        <v>Palmer</v>
       </c>
       <c r="O146" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77665814275</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72242654079</v>
       </c>
       <c r="S146" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>145|Alex|Lawman|+77665814275|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>145|Martin|Palmer|+72242654079|</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -7148,19 +7402,19 @@
       </c>
       <c r="M147" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Gavin</v>
+        <v>Allison</v>
       </c>
       <c r="N147" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Osborne</v>
+        <v>Nyman</v>
       </c>
       <c r="O147" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74261558569</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79744289964</v>
       </c>
       <c r="S147" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>146|Gavin|Osborne|+74261558569|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>146|Allison|Nyman|+79744289964|</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -7181,19 +7435,19 @@
       </c>
       <c r="M148" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Brandon</v>
+        <v>Linda</v>
       </c>
       <c r="N148" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oldridge</v>
+        <v>Russel</v>
       </c>
       <c r="O148" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73835129650</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77352431981</v>
       </c>
       <c r="S148" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>147|Brandon|Oldridge|+73835129650|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>147|Linda|Russel|+77352431981|</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -7214,19 +7468,19 @@
       </c>
       <c r="M149" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alexis</v>
+        <v>Caleb</v>
       </c>
       <c r="N149" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fulton</v>
+        <v>Jacobson</v>
       </c>
       <c r="O149" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79796112405</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76313778583</v>
       </c>
       <c r="S149" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>148|Alexis|Fulton|+79796112405|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>148|Caleb|Jacobson|+76313778583|</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -7247,19 +7501,19 @@
       </c>
       <c r="M150" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sean</v>
+        <v>Justin</v>
       </c>
       <c r="N150" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wainwright</v>
+        <v>Albertson</v>
       </c>
       <c r="O150" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73642949747</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78696873654</v>
       </c>
       <c r="S150" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>149|Sean|Wainwright|+73642949747|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>149|Justin|Albertson|+78696873654|</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -7280,19 +7534,19 @@
       </c>
       <c r="M151" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ella</v>
+        <v>Virginia</v>
       </c>
       <c r="N151" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Carey</v>
+        <v>Gibbs</v>
       </c>
       <c r="O151" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74976575013</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+73005578637</v>
       </c>
       <c r="S151" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>150|Ella|Carey|+74976575013|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>150|Virginia|Gibbs|+73005578637|</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
@@ -7313,19 +7567,19 @@
       </c>
       <c r="M152" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ronald</v>
+        <v>John</v>
       </c>
       <c r="N152" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fitzgerald</v>
+        <v>Creighton</v>
       </c>
       <c r="O152" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+72634838227</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78514603717</v>
       </c>
       <c r="S152" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>151|Ronald|Fitzgerald|+72634838227|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>151|John|Creighton|+78514603717|</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -7346,19 +7600,19 @@
       </c>
       <c r="M153" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marjorie</v>
+        <v>Gabrielle</v>
       </c>
       <c r="N153" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Wood</v>
+        <v>Shorter</v>
       </c>
       <c r="O153" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+76453678777</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77125402225</v>
       </c>
       <c r="S153" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>152|Marjorie|Wood|+76453678777|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>152|Gabrielle|Shorter|+77125402225|</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -7379,19 +7633,19 @@
       </c>
       <c r="M154" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Florence</v>
+        <v>Hunter</v>
       </c>
       <c r="N154" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Croftoon</v>
+        <v>Wood</v>
       </c>
       <c r="O154" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73624568635</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75465949538</v>
       </c>
       <c r="S154" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>153|Florence|Croftoon|+73624568635|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>153|Hunter|Wood|+75465949538|</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
@@ -7412,19 +7666,19 @@
       </c>
       <c r="M155" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Chloe</v>
+        <v>Adelina</v>
       </c>
       <c r="N155" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>MacDonald</v>
+        <v>Lawman</v>
       </c>
       <c r="O155" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74297936178</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75360557559</v>
       </c>
       <c r="S155" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>154|Chloe|MacDonald|+74297936178|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>154|Adelina|Lawman|+75360557559|</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -7445,19 +7699,19 @@
       </c>
       <c r="M156" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Daisy</v>
+        <v>Freda</v>
       </c>
       <c r="N156" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Taylor</v>
+        <v>Fitzgerald</v>
       </c>
       <c r="O156" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77495487960</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76361013462</v>
       </c>
       <c r="S156" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>155|Daisy|Taylor|+77495487960|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>155|Freda|Fitzgerald|+76361013462|</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -7478,19 +7732,19 @@
       </c>
       <c r="M157" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Amelia</v>
+        <v>Faith</v>
       </c>
       <c r="N157" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Tracey</v>
+        <v>Allford</v>
       </c>
       <c r="O157" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+72463260870</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77614461853</v>
       </c>
       <c r="S157" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>156|Amelia|Tracey|+72463260870|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>156|Faith|Allford|+77614461853|</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -7511,19 +7765,19 @@
       </c>
       <c r="M158" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Fiona</v>
+        <v>Alexa</v>
       </c>
       <c r="N158" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Jeff</v>
+        <v>Calhoun</v>
       </c>
       <c r="O158" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+72386812450</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+74717035067</v>
       </c>
       <c r="S158" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>157|Fiona|Jeff|+72386812450|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>157|Alexa|Calhoun|+74717035067|</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -7544,19 +7798,19 @@
       </c>
       <c r="M159" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jeremiah</v>
+        <v>Clifford</v>
       </c>
       <c r="N159" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oswald</v>
+        <v>Coleman</v>
       </c>
       <c r="O159" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+75030643525</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+73849867594</v>
       </c>
       <c r="S159" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>158|Jeremiah|Oswald|+75030643525|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>158|Clifford|Coleman|+73849867594|</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -7577,19 +7831,19 @@
       </c>
       <c r="M160" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Donald</v>
+        <v>Monica</v>
       </c>
       <c r="N160" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Coleman</v>
+        <v>Leman</v>
       </c>
       <c r="O160" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+75239217599</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76294817395</v>
       </c>
       <c r="S160" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>159|Donald|Coleman|+75239217599|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>159|Monica|Leman|+76294817395|</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -7610,19 +7864,19 @@
       </c>
       <c r="M161" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dorothy</v>
+        <v>Luccile</v>
       </c>
       <c r="N161" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Saunder</v>
+        <v>Goodman</v>
       </c>
       <c r="O161" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79569463088</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+74498235279</v>
       </c>
       <c r="S161" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>160|Dorothy|Saunder|+79569463088|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>160|Luccile|Goodman|+74498235279|</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -7643,19 +7897,19 @@
       </c>
       <c r="M162" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Julian</v>
+        <v>Brianna</v>
       </c>
       <c r="N162" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Webster</v>
+        <v>Vaughan</v>
       </c>
       <c r="O162" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79518706001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79817378560</v>
       </c>
       <c r="S162" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>161|Julian|Webster|+79518706001|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>161|Brianna|Vaughan|+79817378560|</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -7676,19 +7930,19 @@
       </c>
       <c r="M163" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Riley</v>
+        <v>Pauline</v>
       </c>
       <c r="N163" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>WifKinson</v>
+        <v>Albertson</v>
       </c>
       <c r="O163" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+72133663761</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79789849014</v>
       </c>
       <c r="S163" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>162|Riley|WifKinson|+72133663761|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>162|Pauline|Albertson|+79789849014|</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -7709,19 +7963,19 @@
       </c>
       <c r="M164" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Margaret</v>
+        <v>Christine</v>
       </c>
       <c r="N164" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Peterson</v>
+        <v>Dutton</v>
       </c>
       <c r="O164" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79944316194</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78766276463</v>
       </c>
       <c r="S164" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>163|Margaret|Peterson|+79944316194|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>163|Christine|Dutton|+78766276463|</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -7742,19 +7996,19 @@
       </c>
       <c r="M165" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>William</v>
+        <v>Oscar</v>
       </c>
       <c r="N165" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Taft</v>
+        <v>Johnson</v>
       </c>
       <c r="O165" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77918755090</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+71127259359</v>
       </c>
       <c r="S165" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>164|William|Taft|+77918755090|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>164|Oscar|Johnson|+71127259359|</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -7775,19 +8029,19 @@
       </c>
       <c r="M166" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jeremiah</v>
+        <v>Sylvia</v>
       </c>
       <c r="N166" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oliver</v>
+        <v>Thomson</v>
       </c>
       <c r="O166" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79646201995</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72810224244</v>
       </c>
       <c r="S166" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>165|Jeremiah|Oliver|+79646201995|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>165|Sylvia|Thomson|+72810224244|</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -7808,19 +8062,19 @@
       </c>
       <c r="M167" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ronald</v>
+        <v>Florence</v>
       </c>
       <c r="N167" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Garrison</v>
+        <v>Dean</v>
       </c>
       <c r="O167" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+72761799840</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78046689225</v>
       </c>
       <c r="S167" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>166|Ronald|Garrison|+72761799840|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>166|Florence|Dean|+78046689225|</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -7841,19 +8095,19 @@
       </c>
       <c r="M168" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dorothy</v>
+        <v>Abigail</v>
       </c>
       <c r="N168" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Marlow</v>
+        <v>Smith</v>
       </c>
       <c r="O168" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+72885179925</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+71228778787</v>
       </c>
       <c r="S168" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>167|Dorothy|Marlow|+72885179925|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>167|Abigail|Smith|+71228778787|</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -7874,19 +8128,19 @@
       </c>
       <c r="M169" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lauren</v>
+        <v>Lawrence</v>
       </c>
       <c r="N169" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Blare</v>
+        <v>Ellington</v>
       </c>
       <c r="O169" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78965919983</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77864197014</v>
       </c>
       <c r="S169" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>168|Lauren|Blare|+78965919983|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>168|Lawrence|Ellington|+77864197014|</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -7907,19 +8161,19 @@
       </c>
       <c r="M170" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Pauline</v>
+        <v>Sofia</v>
       </c>
       <c r="N170" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Black</v>
+        <v>Duncan</v>
       </c>
       <c r="O170" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73012096504</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72812546094</v>
       </c>
       <c r="S170" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>169|Pauline|Black|+73012096504|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>169|Sofia|Duncan|+72812546094|</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
@@ -7940,19 +8194,19 @@
       </c>
       <c r="M171" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ada</v>
+        <v>Gabriel</v>
       </c>
       <c r="N171" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>James</v>
+        <v>Wood</v>
       </c>
       <c r="O171" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+75481996810</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75139629439</v>
       </c>
       <c r="S171" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>170|Ada|James|+75481996810|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>170|Gabriel|Wood|+75139629439|</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
@@ -7973,19 +8227,19 @@
       </c>
       <c r="M172" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sean</v>
+        <v>Jackson</v>
       </c>
       <c r="N172" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Sykes</v>
+        <v>Flatcher</v>
       </c>
       <c r="O172" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71861072402</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72486023912</v>
       </c>
       <c r="S172" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>171|Sean|Sykes|+71861072402|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>171|Jackson|Flatcher|+72486023912|</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
@@ -8006,19 +8260,19 @@
       </c>
       <c r="M173" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alexis</v>
+        <v>Marisa</v>
       </c>
       <c r="N173" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mansfield</v>
+        <v>Wesley</v>
       </c>
       <c r="O173" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73258364657</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79473777066</v>
       </c>
       <c r="S173" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>172|Alexis|Mansfield|+73258364657|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>172|Marisa|Wesley|+79473777066|</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
@@ -8039,19 +8293,19 @@
       </c>
       <c r="M174" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dylan</v>
+        <v>Jonathan</v>
       </c>
       <c r="N174" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Jerome</v>
+        <v>MacAdam</v>
       </c>
       <c r="O174" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71401082386</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+73913014264</v>
       </c>
       <c r="S174" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>173|Dylan|Jerome|+71401082386|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>173|Jonathan|MacAdam|+73913014264|</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -8072,19 +8326,19 @@
       </c>
       <c r="M175" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Stephanie</v>
+        <v>Jack</v>
       </c>
       <c r="N175" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mansfield</v>
+        <v>Addington</v>
       </c>
       <c r="O175" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71696714912</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76809097044</v>
       </c>
       <c r="S175" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>174|Stephanie|Mansfield|+71696714912|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>174|Jack|Addington|+76809097044|</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
@@ -8105,19 +8359,19 @@
       </c>
       <c r="M176" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Freda</v>
+        <v>Sarah</v>
       </c>
       <c r="N176" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Tracey</v>
+        <v>Boolman</v>
       </c>
       <c r="O176" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79546645089</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75233795939</v>
       </c>
       <c r="S176" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>175|Freda|Tracey|+79546645089|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>175|Sarah|Boolman|+75233795939|</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
@@ -8138,19 +8392,19 @@
       </c>
       <c r="M177" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Amanda</v>
+        <v>Donald</v>
       </c>
       <c r="N177" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mathews</v>
+        <v>Erickson</v>
       </c>
       <c r="O177" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71544076115</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+71424370482</v>
       </c>
       <c r="S177" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>176|Amanda|Mathews|+71544076115|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>176|Donald|Erickson|+71424370482|</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
@@ -8171,19 +8425,19 @@
       </c>
       <c r="M178" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kylie</v>
+        <v>Sybil</v>
       </c>
       <c r="N178" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Charlson</v>
+        <v>Baldwin</v>
       </c>
       <c r="O178" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78201399537</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+74497836438</v>
       </c>
       <c r="S178" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>177|Kylie|Charlson|+78201399537|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>177|Sybil|Baldwin|+74497836438|</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
@@ -8204,19 +8458,19 @@
       </c>
       <c r="M179" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Fred</v>
+        <v>Jane</v>
       </c>
       <c r="N179" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Flatcher</v>
+        <v>Addington</v>
       </c>
       <c r="O179" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71762454323</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72922734892</v>
       </c>
       <c r="S179" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>178|Fred|Flatcher|+71762454323|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>178|Jane|Addington|+72922734892|</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
@@ -8237,19 +8491,19 @@
       </c>
       <c r="M180" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jocelyn</v>
+        <v>Jacob</v>
       </c>
       <c r="N180" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>MacAdam</v>
+        <v>Eddington</v>
       </c>
       <c r="O180" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77579359547</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78653722833</v>
       </c>
       <c r="S180" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>179|Jocelyn|MacAdam|+77579359547|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>179|Jacob|Eddington|+78653722833|</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
@@ -8270,19 +8524,19 @@
       </c>
       <c r="M181" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Brianna</v>
+        <v>Madeline</v>
       </c>
       <c r="N181" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Sykes</v>
+        <v>Smith</v>
       </c>
       <c r="O181" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74192996517</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+71539071637</v>
       </c>
       <c r="S181" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>180|Brianna|Sykes|+74192996517|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>180|Madeline|Smith|+71539071637|</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
@@ -8303,19 +8557,19 @@
       </c>
       <c r="M182" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hunter</v>
+        <v>Ryan</v>
       </c>
       <c r="N182" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Timmons</v>
+        <v>Gustman</v>
       </c>
       <c r="O182" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+74032757114</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79266083326</v>
       </c>
       <c r="S182" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>181|Hunter|Timmons|+74032757114|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>181|Ryan|Gustman|+79266083326|</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
@@ -8336,19 +8590,19 @@
       </c>
       <c r="M183" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Adelina</v>
+        <v>Sophia</v>
       </c>
       <c r="N183" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Farmer</v>
+        <v>Leman</v>
       </c>
       <c r="O183" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+75335168877</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79408757833</v>
       </c>
       <c r="S183" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>182|Adelina|Farmer|+75335168877|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>182|Sophia|Leman|+79408757833|</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
@@ -8369,19 +8623,19 @@
       </c>
       <c r="M184" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ralph</v>
+        <v>Cyrus</v>
       </c>
       <c r="N184" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gilmore</v>
+        <v>Taylor</v>
       </c>
       <c r="O184" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79582770221</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78640095212</v>
       </c>
       <c r="S184" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>183|Ralph|Gilmore|+79582770221|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>183|Cyrus|Taylor|+78640095212|</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
@@ -8402,19 +8656,19 @@
       </c>
       <c r="M185" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Wallace</v>
+        <v>Alexa</v>
       </c>
       <c r="N185" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Richards</v>
+        <v>Alsopp</v>
       </c>
       <c r="O185" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+76282522994</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79873793761</v>
       </c>
       <c r="S185" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>184|Wallace|Richards|+76282522994|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>184|Alexa|Alsopp|+79873793761|</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
@@ -8435,19 +8689,19 @@
       </c>
       <c r="M186" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Fiona</v>
+        <v>Grace</v>
       </c>
       <c r="N186" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fulton</v>
+        <v>Waller</v>
       </c>
       <c r="O186" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+79667476441</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75522106622</v>
       </c>
       <c r="S186" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>185|Fiona|Fulton|+79667476441|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>185|Grace|Waller|+75522106622|</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
@@ -8468,19 +8722,19 @@
       </c>
       <c r="M187" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Susan</v>
+        <v>Florence</v>
       </c>
       <c r="N187" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ramacey</v>
+        <v>Taylor</v>
       </c>
       <c r="O187" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77044567384</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+73079040717</v>
       </c>
       <c r="S187" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>186|Susan|Ramacey|+77044567384|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>186|Florence|Taylor|+73079040717|</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
@@ -8501,19 +8755,19 @@
       </c>
       <c r="M188" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alejandro</v>
+        <v>Diana</v>
       </c>
       <c r="N188" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Thorndike</v>
+        <v>Garrison</v>
       </c>
       <c r="O188" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+76108531543</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+78270346409</v>
       </c>
       <c r="S188" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>187|Alejandro|Thorndike|+76108531543|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>187|Diana|Garrison|+78270346409|</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
@@ -8534,19 +8788,19 @@
       </c>
       <c r="M189" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hannah</v>
+        <v>Erin</v>
       </c>
       <c r="N189" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dowman</v>
+        <v>Ryder</v>
       </c>
       <c r="O189" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+78770058175</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+76520154908</v>
       </c>
       <c r="S189" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>188|Hannah|Dowman|+78770058175|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>188|Erin|Ryder|+76520154908|</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
@@ -8567,19 +8821,19 @@
       </c>
       <c r="M190" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jordan</v>
+        <v>Hannah</v>
       </c>
       <c r="N190" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Raleigh</v>
+        <v>Kennedy</v>
       </c>
       <c r="O190" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+73151986517</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+77095187492</v>
       </c>
       <c r="S190" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>189|Jordan|Raleigh|+73151986517|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>189|Hannah|Kennedy|+77095187492|</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
@@ -8600,19 +8854,19 @@
       </c>
       <c r="M191" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dennis</v>
+        <v>Nathaniel</v>
       </c>
       <c r="N191" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fraser</v>
+        <v>Simpson</v>
       </c>
       <c r="O191" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77361248755</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+79843740086</v>
       </c>
       <c r="S191" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>190|Dennis|Fraser|+77361248755|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>190|Nathaniel|Simpson|+79843740086|</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
@@ -8633,19 +8887,19 @@
       </c>
       <c r="M192" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sybil</v>
+        <v>Horace</v>
       </c>
       <c r="N192" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dean</v>
+        <v>Davidson</v>
       </c>
       <c r="O192" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77941867352</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75547810413</v>
       </c>
       <c r="S192" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>191|Sybil|Dean|+77941867352|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>191|Horace|Davidson|+75547810413|</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
@@ -8666,19 +8920,19 @@
       </c>
       <c r="M193" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Laura</v>
+        <v>Joshua</v>
       </c>
       <c r="N193" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Cook</v>
+        <v>Oliver</v>
       </c>
       <c r="O193" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+71893024700</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+72099315047</v>
       </c>
       <c r="S193" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>192|Laura|Cook|+71893024700|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>192|Joshua|Oliver|+72099315047|</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
@@ -8699,19 +8953,19 @@
       </c>
       <c r="M194" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Chase</v>
+        <v>Angelina</v>
       </c>
       <c r="N194" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Carrington</v>
+        <v>Livingston</v>
       </c>
       <c r="O194" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+77819971275</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+75732224941</v>
       </c>
       <c r="S194" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>193|Chase|Carrington|+77819971275|</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>193|Angelina|Livingston|+75732224941|</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
@@ -8732,19 +8986,19 @@
       </c>
       <c r="M195" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Julia</v>
+        <v>Kylie</v>
       </c>
       <c r="N195" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Edwards</v>
+        <v>Gate</v>
       </c>
       <c r="O195" t="str">
-        <f t="shared" ref="O195:O258" ca="1" si="6">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+71608048180</v>
+        <f t="shared" ref="O195:O258" ca="1" si="7">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
+        <v>+72324179167</v>
       </c>
       <c r="S195" t="str">
-        <f t="shared" ref="S195:S258" ca="1" si="7">CONCATENATE(L195,"|",M195,"|",N195,"|",O195,"|")</f>
-        <v>194|Julia|Edwards|+71608048180|</v>
+        <f t="shared" ref="S195:S258" ca="1" si="8">CONCATENATE(L195,"|",M195,"|",N195,"|",O195,"|")</f>
+        <v>194|Kylie|Gate|+72324179167|</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
@@ -8765,19 +9019,19 @@
       </c>
       <c r="M196" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Brian</v>
+        <v>Walter</v>
       </c>
       <c r="N196" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Pearcy</v>
+        <v>Blomfield</v>
       </c>
       <c r="O196" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78653217533</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+76531668266</v>
       </c>
       <c r="S196" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>195|Brian|Pearcy|+78653217533|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>195|Walter|Blomfield|+76531668266|</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
@@ -8798,19 +9052,19 @@
       </c>
       <c r="M197" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Howard</v>
+        <v>Wyatt</v>
       </c>
       <c r="N197" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Calhoun</v>
+        <v>Larkins</v>
       </c>
       <c r="O197" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+75624045788</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73186347507</v>
       </c>
       <c r="S197" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>196|Howard|Calhoun|+75624045788|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>196|Wyatt|Larkins|+73186347507|</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
@@ -8831,19 +9085,19 @@
       </c>
       <c r="M198" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Luke</v>
+        <v>Leah</v>
       </c>
       <c r="N198" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Finch</v>
+        <v>Laird</v>
       </c>
       <c r="O198" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74996497184</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+74160776960</v>
       </c>
       <c r="S198" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>197|Luke|Finch|+74996497184|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>197|Leah|Laird|+74160776960|</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
@@ -8864,19 +9118,19 @@
       </c>
       <c r="M199" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sean</v>
+        <v>Fiona</v>
       </c>
       <c r="N199" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gate</v>
+        <v>Carter</v>
       </c>
       <c r="O199" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74210747411</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+71330218370</v>
       </c>
       <c r="S199" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>198|Sean|Gate|+74210747411|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>198|Fiona|Carter|+71330218370|</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
@@ -8897,19 +9151,19 @@
       </c>
       <c r="M200" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jaden</v>
+        <v>Gabrielle</v>
       </c>
       <c r="N200" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Nelson</v>
+        <v>Gill</v>
       </c>
       <c r="O200" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+76519234720</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+74021306969</v>
       </c>
       <c r="S200" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>199|Jaden|Nelson|+76519234720|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>199|Gabrielle|Gill|+74021306969|</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
@@ -8930,19 +9184,19 @@
       </c>
       <c r="M201" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nora</v>
+        <v>Elizabeth</v>
       </c>
       <c r="N201" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Winter</v>
+        <v>Peacock</v>
       </c>
       <c r="O201" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+71053223628</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+71140994504</v>
       </c>
       <c r="S201" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>200|Nora|Winter|+71053223628|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>200|Elizabeth|Peacock|+71140994504|</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
@@ -8963,19 +9217,19 @@
       </c>
       <c r="M202" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Caroline</v>
+        <v>Leonars</v>
       </c>
       <c r="N202" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bishop</v>
+        <v>MacAlister</v>
       </c>
       <c r="O202" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78128199788</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+76580888169</v>
       </c>
       <c r="S202" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>201|Caroline|Bishop|+78128199788|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>201|Leonars|MacAlister|+76580888169|</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
@@ -8996,19 +9250,19 @@
       </c>
       <c r="M203" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Stanley</v>
+        <v>Ashton</v>
       </c>
       <c r="N203" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Benson</v>
+        <v>Neal</v>
       </c>
       <c r="O203" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+76499650642</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+71407504377</v>
       </c>
       <c r="S203" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>202|Stanley|Benson|+76499650642|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>202|Ashton|Neal|+71407504377|</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
@@ -9029,19 +9283,19 @@
       </c>
       <c r="M204" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ian</v>
+        <v>Pauline</v>
       </c>
       <c r="N204" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bosworth</v>
+        <v>Andrews</v>
       </c>
       <c r="O204" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+79493226955</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+71479589832</v>
       </c>
       <c r="S204" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>203|Ian|Bosworth|+79493226955|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>203|Pauline|Andrews|+71479589832|</v>
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
@@ -9062,19 +9316,19 @@
       </c>
       <c r="M205" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Douglas</v>
+        <v>Jonathan</v>
       </c>
       <c r="N205" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Larkins</v>
+        <v>Waller</v>
       </c>
       <c r="O205" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72670772358</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72522901883</v>
       </c>
       <c r="S205" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>204|Douglas|Larkins|+72670772358|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>204|Jonathan|Waller|+72522901883|</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
@@ -9095,19 +9349,19 @@
       </c>
       <c r="M206" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Blake</v>
+        <v>Alexander</v>
       </c>
       <c r="N206" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bradberry</v>
+        <v>Cook</v>
       </c>
       <c r="O206" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72273070296</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73392619041</v>
       </c>
       <c r="S206" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>205|Blake|Bradberry|+72273070296|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>205|Alexander|Cook|+73392619041|</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
@@ -9128,19 +9382,19 @@
       </c>
       <c r="M207" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Barbara</v>
+        <v>Fred</v>
       </c>
       <c r="N207" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Arnold</v>
+        <v>Fisher</v>
       </c>
       <c r="O207" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+71229120034</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79897055317</v>
       </c>
       <c r="S207" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>206|Barbara|Arnold|+71229120034|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>206|Fred|Fisher|+79897055317|</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
@@ -9161,19 +9415,19 @@
       </c>
       <c r="M208" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ann</v>
+        <v>Katelyn</v>
       </c>
       <c r="N208" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dyson</v>
+        <v>Longman</v>
       </c>
       <c r="O208" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+75451049744</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72195390440</v>
       </c>
       <c r="S208" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>207|Ann|Dyson|+75451049744|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>207|Katelyn|Longman|+72195390440|</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
@@ -9194,19 +9448,19 @@
       </c>
       <c r="M209" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Monica</v>
+        <v>Fred</v>
       </c>
       <c r="N209" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kennett</v>
+        <v>Austin</v>
       </c>
       <c r="O209" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72880918226</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+78170767285</v>
       </c>
       <c r="S209" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>208|Monica|Kennett|+72880918226|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>208|Fred|Austin|+78170767285|</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
@@ -9227,19 +9481,19 @@
       </c>
       <c r="M210" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Vanessa</v>
+        <v>Patrick</v>
       </c>
       <c r="N210" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Quincy</v>
+        <v>Walter</v>
       </c>
       <c r="O210" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74362052848</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72433090726</v>
       </c>
       <c r="S210" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>209|Vanessa|Quincy|+74362052848|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>209|Patrick|Walter|+72433090726|</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
@@ -9260,19 +9514,19 @@
       </c>
       <c r="M211" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nathaniel</v>
+        <v>Beatrice</v>
       </c>
       <c r="N211" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Andrews</v>
+        <v>Allford</v>
       </c>
       <c r="O211" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77749516440</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77519520762</v>
       </c>
       <c r="S211" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>210|Nathaniel|Andrews|+77749516440|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>210|Beatrice|Allford|+77519520762|</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
@@ -9293,19 +9547,19 @@
       </c>
       <c r="M212" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Mackenzie</v>
+        <v>Tyler</v>
       </c>
       <c r="N212" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Blomfield</v>
+        <v>Edwards</v>
       </c>
       <c r="O212" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+75364655633</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77921164234</v>
       </c>
       <c r="S212" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>211|Mackenzie|Blomfield|+75364655633|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>211|Tyler|Edwards|+77921164234|</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
@@ -9326,19 +9580,19 @@
       </c>
       <c r="M213" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Howard</v>
+        <v>Raymond</v>
       </c>
       <c r="N213" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Arnold</v>
+        <v>Goodman</v>
       </c>
       <c r="O213" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+71135014002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77780937470</v>
       </c>
       <c r="S213" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>212|Howard|Arnold|+71135014002|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>212|Raymond|Goodman|+77780937470|</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
@@ -9359,19 +9613,19 @@
       </c>
       <c r="M214" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Colin</v>
+        <v>Rodrigo</v>
       </c>
       <c r="N214" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bradberry</v>
+        <v>Gilmore</v>
       </c>
       <c r="O214" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74163346224</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+71405795563</v>
       </c>
       <c r="S214" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>213|Colin|Bradberry|+74163346224|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>213|Rodrigo|Gilmore|+71405795563|</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
@@ -9392,19 +9646,19 @@
       </c>
       <c r="M215" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Edward</v>
+        <v>Abigail</v>
       </c>
       <c r="N215" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Attwood</v>
+        <v>Benson</v>
       </c>
       <c r="O215" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+71010654190</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+76781561166</v>
       </c>
       <c r="S215" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>214|Edward|Attwood|+71010654190|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>214|Abigail|Benson|+76781561166|</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
@@ -9425,19 +9679,19 @@
       </c>
       <c r="M216" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Priscilla</v>
+        <v>Sharon</v>
       </c>
       <c r="N216" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Edwards</v>
+        <v>Austin</v>
       </c>
       <c r="O216" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78813064897</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79936446619</v>
       </c>
       <c r="S216" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>215|Priscilla|Edwards|+78813064897|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>215|Sharon|Austin|+79936446619|</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
@@ -9458,19 +9712,19 @@
       </c>
       <c r="M217" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Owen</v>
+        <v>Adam</v>
       </c>
       <c r="N217" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Elmers</v>
+        <v>Carter</v>
       </c>
       <c r="O217" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73869821041</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+74874661002</v>
       </c>
       <c r="S217" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>216|Owen|Elmers|+73869821041|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>216|Adam|Carter|+74874661002|</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
@@ -9491,19 +9745,19 @@
       </c>
       <c r="M218" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Virginia</v>
+        <v>Ralph</v>
       </c>
       <c r="N218" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Sheldon</v>
+        <v>Ramacey</v>
       </c>
       <c r="O218" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78131509909</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+76598430765</v>
       </c>
       <c r="S218" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>217|Virginia|Sheldon|+78131509909|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>217|Ralph|Ramacey|+76598430765|</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
@@ -9524,19 +9778,19 @@
       </c>
       <c r="M219" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Destiny</v>
+        <v>Andrew</v>
       </c>
       <c r="N219" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Osborne</v>
+        <v>Ward</v>
       </c>
       <c r="O219" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+79357473366</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+76690196927</v>
       </c>
       <c r="S219" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>218|Destiny|Osborne|+79357473366|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>218|Andrew|Ward|+76690196927|</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
@@ -9557,19 +9811,19 @@
       </c>
       <c r="M220" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Walter</v>
+        <v>Allison</v>
       </c>
       <c r="N220" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>WifKinson</v>
+        <v>Arnold</v>
       </c>
       <c r="O220" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77453452261</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73897377507</v>
       </c>
       <c r="S220" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>219|Walter|WifKinson|+77453452261|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>219|Allison|Arnold|+73897377507|</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
@@ -9590,19 +9844,19 @@
       </c>
       <c r="M221" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Howard</v>
+        <v>Emily</v>
       </c>
       <c r="N221" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Roger</v>
+        <v>Wallace</v>
       </c>
       <c r="O221" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+71365191340</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+74434335665</v>
       </c>
       <c r="S221" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>220|Howard|Roger|+71365191340|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>220|Emily|Wallace|+74434335665|</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
@@ -9623,19 +9877,19 @@
       </c>
       <c r="M222" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Curtis</v>
+        <v>Gilbert</v>
       </c>
       <c r="N222" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lewin</v>
+        <v>Ralphs</v>
       </c>
       <c r="O222" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72874490525</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79927607254</v>
       </c>
       <c r="S222" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>221|Curtis|Lewin|+72874490525|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>221|Gilbert|Ralphs|+79927607254|</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
@@ -9656,19 +9910,19 @@
       </c>
       <c r="M223" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Winifred</v>
+        <v>Claire</v>
       </c>
       <c r="N223" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Birch</v>
+        <v>Gilbert</v>
       </c>
       <c r="O223" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+75096701945</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79029163275</v>
       </c>
       <c r="S223" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>222|Winifred|Birch|+75096701945|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>222|Claire|Gilbert|+79029163275|</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
@@ -9689,19 +9943,19 @@
       </c>
       <c r="M224" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sybil</v>
+        <v>Rose</v>
       </c>
       <c r="N224" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Marshman</v>
+        <v>Simon</v>
       </c>
       <c r="O224" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73875810553</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73042730882</v>
       </c>
       <c r="S224" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>223|Sybil|Marshman|+73875810553|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>223|Rose|Simon|+73042730882|</v>
       </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
@@ -9722,19 +9976,19 @@
       </c>
       <c r="M225" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Pauline</v>
+        <v>Susan</v>
       </c>
       <c r="N225" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Thornton</v>
+        <v>Walter</v>
       </c>
       <c r="O225" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77661373850</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73649253186</v>
       </c>
       <c r="S225" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>224|Pauline|Thornton|+77661373850|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>224|Susan|Walter|+73649253186|</v>
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
@@ -9755,19 +10009,19 @@
       </c>
       <c r="M226" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Barbara</v>
+        <v>Gloria</v>
       </c>
       <c r="N226" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Evans</v>
+        <v>Forster</v>
       </c>
       <c r="O226" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78958870272</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77604329446</v>
       </c>
       <c r="S226" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>225|Barbara|Evans|+78958870272|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>225|Gloria|Forster|+77604329446|</v>
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
@@ -9788,19 +10042,19 @@
       </c>
       <c r="M227" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>John</v>
+        <v>Logan</v>
       </c>
       <c r="N227" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mathews</v>
+        <v>Conors</v>
       </c>
       <c r="O227" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+71368798956</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72264461709</v>
       </c>
       <c r="S227" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>226|John|Mathews|+71368798956|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>226|Logan|Conors|+72264461709|</v>
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
@@ -9821,19 +10075,19 @@
       </c>
       <c r="M228" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Isaiah</v>
+        <v>Graham</v>
       </c>
       <c r="N228" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kingsman</v>
+        <v>Douglas</v>
       </c>
       <c r="O228" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78303581495</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+78931167465</v>
       </c>
       <c r="S228" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>227|Isaiah|Kingsman|+78303581495|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>227|Graham|Douglas|+78931167465|</v>
       </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
@@ -9854,19 +10108,19 @@
       </c>
       <c r="M229" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Graham</v>
+        <v>Hailey</v>
       </c>
       <c r="N229" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Shackley</v>
+        <v>Blare</v>
       </c>
       <c r="O229" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72861545822</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72040469103</v>
       </c>
       <c r="S229" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>228|Graham|Shackley|+72861545822|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>228|Hailey|Blare|+72040469103|</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
@@ -9887,19 +10141,19 @@
       </c>
       <c r="M230" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Geoffrey</v>
+        <v>Amber</v>
       </c>
       <c r="N230" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hamphrey</v>
+        <v>Fitzgerald</v>
       </c>
       <c r="O230" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78935366499</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73737953026</v>
       </c>
       <c r="S230" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>229|Geoffrey|Hamphrey|+78935366499|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>229|Amber|Fitzgerald|+73737953026|</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
@@ -9920,19 +10174,19 @@
       </c>
       <c r="M231" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Madeline</v>
+        <v>Leonars</v>
       </c>
       <c r="N231" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Porter</v>
+        <v>Mackenzie</v>
       </c>
       <c r="O231" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78016576793</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77560675167</v>
       </c>
       <c r="S231" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>230|Madeline|Porter|+78016576793|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>230|Leonars|Mackenzie|+77560675167|</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
@@ -9953,19 +10207,19 @@
       </c>
       <c r="M232" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hannah</v>
+        <v>Ian</v>
       </c>
       <c r="N232" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Adrian</v>
+        <v>Dyson</v>
       </c>
       <c r="O232" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+76787594807</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73208767428</v>
       </c>
       <c r="S232" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>231|Hannah|Adrian|+76787594807|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>231|Ian|Dyson|+73208767428|</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
@@ -9986,19 +10240,19 @@
       </c>
       <c r="M233" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Elijah</v>
+        <v>Mason</v>
       </c>
       <c r="N233" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Carrington</v>
+        <v>Sheldon</v>
       </c>
       <c r="O233" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+79101615764</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79288730877</v>
       </c>
       <c r="S233" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>232|Elijah|Carrington|+79101615764|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>232|Mason|Sheldon|+79288730877|</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
@@ -10019,19 +10273,19 @@
       </c>
       <c r="M234" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Winifred</v>
+        <v>Autumn</v>
       </c>
       <c r="N234" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Baldwin</v>
+        <v>Hardman</v>
       </c>
       <c r="O234" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73825227687</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79019863046</v>
       </c>
       <c r="S234" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>233|Winifred|Baldwin|+73825227687|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>233|Autumn|Hardman|+79019863046|</v>
       </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
@@ -10052,19 +10306,19 @@
       </c>
       <c r="M235" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jasmine</v>
+        <v>Howard</v>
       </c>
       <c r="N235" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gilmore</v>
+        <v>Jacobson</v>
       </c>
       <c r="O235" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72533452468</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72654871185</v>
       </c>
       <c r="S235" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>234|Jasmine|Gilmore|+72533452468|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>234|Howard|Jacobson|+72654871185|</v>
       </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
@@ -10085,19 +10339,19 @@
       </c>
       <c r="M236" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Amanda</v>
+        <v>Joseph</v>
       </c>
       <c r="N236" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Enderson</v>
+        <v>Carrington</v>
       </c>
       <c r="O236" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73864401212</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79897677519</v>
       </c>
       <c r="S236" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>235|Amanda|Enderson|+73864401212|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>235|Joseph|Carrington|+79897677519|</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
@@ -10118,19 +10372,19 @@
       </c>
       <c r="M237" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lawrence</v>
+        <v>Charles</v>
       </c>
       <c r="N237" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mercer</v>
+        <v>Brown</v>
       </c>
       <c r="O237" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+79352826745</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77975239453</v>
       </c>
       <c r="S237" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>236|Lawrence|Mercer|+79352826745|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>236|Charles|Brown|+77975239453|</v>
       </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
@@ -10151,19 +10405,19 @@
       </c>
       <c r="M238" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Francis</v>
+        <v>Alexis</v>
       </c>
       <c r="N238" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Paterson</v>
+        <v>Fraser</v>
       </c>
       <c r="O238" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73142458624</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77936452413</v>
       </c>
       <c r="S238" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>237|Francis|Paterson|+73142458624|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>237|Alexis|Fraser|+77936452413|</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
@@ -10184,19 +10438,19 @@
       </c>
       <c r="M239" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Samantha</v>
+        <v>Grace</v>
       </c>
       <c r="N239" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Vance</v>
+        <v>Dutton</v>
       </c>
       <c r="O239" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73236928526</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72152218153</v>
       </c>
       <c r="S239" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>238|Samantha|Vance|+73236928526|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>238|Grace|Dutton|+72152218153|</v>
       </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
@@ -10217,19 +10471,19 @@
       </c>
       <c r="M240" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Daniel</v>
+        <v>Ethan</v>
       </c>
       <c r="N240" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Day</v>
+        <v>Timmons</v>
       </c>
       <c r="O240" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74279269154</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72714797881</v>
       </c>
       <c r="S240" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>239|Daniel|Day|+74279269154|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>239|Ethan|Timmons|+72714797881|</v>
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
@@ -10250,19 +10504,19 @@
       </c>
       <c r="M241" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jordan</v>
+        <v>Erin</v>
       </c>
       <c r="N241" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Aldridge</v>
+        <v>Pass</v>
       </c>
       <c r="O241" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+76395784585</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+75540338089</v>
       </c>
       <c r="S241" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>240|Jordan|Aldridge|+76395784585|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>240|Erin|Pass|+75540338089|</v>
       </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
@@ -10283,19 +10537,19 @@
       </c>
       <c r="M242" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jonathan</v>
+        <v>Geoffrey</v>
       </c>
       <c r="N242" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Day</v>
+        <v>Hailey</v>
       </c>
       <c r="O242" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74116517414</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+74222909071</v>
       </c>
       <c r="S242" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>241|Jonathan|Day|+74116517414|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>241|Geoffrey|Hailey|+74222909071|</v>
       </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
@@ -10316,19 +10570,19 @@
       </c>
       <c r="M243" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Luke</v>
+        <v>Gerld</v>
       </c>
       <c r="N243" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fane</v>
+        <v>Adderiy</v>
       </c>
       <c r="O243" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72322559320</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79647152279</v>
       </c>
       <c r="S243" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>242|Luke|Fane|+72322559320|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>242|Gerld|Adderiy|+79647152279|</v>
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
@@ -10349,19 +10603,19 @@
       </c>
       <c r="M244" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jordan</v>
+        <v>Lauren</v>
       </c>
       <c r="N244" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bargeman</v>
+        <v>Philips</v>
       </c>
       <c r="O244" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+75413581632</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+78737073643</v>
       </c>
       <c r="S244" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>243|Jordan|Bargeman|+75413581632|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>243|Lauren|Philips|+78737073643|</v>
       </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
@@ -10382,19 +10636,19 @@
       </c>
       <c r="M245" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Adrian</v>
+        <v>Nathan</v>
       </c>
       <c r="N245" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>White</v>
+        <v>Evans</v>
       </c>
       <c r="O245" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72316218003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77746159734</v>
       </c>
       <c r="S245" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>244|Adrian|White|+72316218003|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>244|Nathan|Evans|+77746159734|</v>
       </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
@@ -10415,19 +10669,19 @@
       </c>
       <c r="M246" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Evelyn</v>
+        <v>Bryan</v>
       </c>
       <c r="N246" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Sykes</v>
+        <v>Gerald</v>
       </c>
       <c r="O246" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78373799180</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+75318434867</v>
       </c>
       <c r="S246" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>245|Evelyn|Sykes|+78373799180|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>245|Bryan|Gerald|+75318434867|</v>
       </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
@@ -10448,19 +10702,19 @@
       </c>
       <c r="M247" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jose</v>
+        <v>Christine</v>
       </c>
       <c r="N247" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Croftoon</v>
+        <v>Day</v>
       </c>
       <c r="O247" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+79357102977</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79561592099</v>
       </c>
       <c r="S247" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>246|Jose|Croftoon|+79357102977|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>246|Christine|Day|+79561592099|</v>
       </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
@@ -10481,19 +10735,19 @@
       </c>
       <c r="M248" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Marjorie</v>
+        <v>Madeline</v>
       </c>
       <c r="N248" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Winter</v>
+        <v>Walkman</v>
       </c>
       <c r="O248" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77894904257</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77338956703</v>
       </c>
       <c r="S248" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>247|Marjorie|Winter|+77894904257|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>247|Madeline|Walkman|+77338956703|</v>
       </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
@@ -10514,19 +10768,19 @@
       </c>
       <c r="M249" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ada</v>
+        <v>Kaylee</v>
       </c>
       <c r="N249" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Tracey</v>
+        <v>Forster</v>
       </c>
       <c r="O249" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77059863126</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+75905880504</v>
       </c>
       <c r="S249" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>248|Ada|Tracey|+77059863126|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>248|Kaylee|Forster|+75905880504|</v>
       </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
@@ -10547,19 +10801,19 @@
       </c>
       <c r="M250" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Angelina</v>
+        <v>Lewis</v>
       </c>
       <c r="N250" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Salomon</v>
+        <v>Mathews</v>
       </c>
       <c r="O250" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77332281902</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+79318612552</v>
       </c>
       <c r="S250" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>249|Angelina|Salomon|+77332281902|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>249|Lewis|Mathews|+79318612552|</v>
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
@@ -10580,19 +10834,19 @@
       </c>
       <c r="M251" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kimberly</v>
+        <v>Jonathan</v>
       </c>
       <c r="N251" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Creighton</v>
+        <v>Conors</v>
       </c>
       <c r="O251" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+74114867121</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+76586645498</v>
       </c>
       <c r="S251" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>250|Kimberly|Creighton|+74114867121|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>250|Jonathan|Conors|+76586645498|</v>
       </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
@@ -10613,19 +10867,19 @@
       </c>
       <c r="M252" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kevin</v>
+        <v>Cecilia</v>
       </c>
       <c r="N252" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Clapton</v>
+        <v>MacDonald</v>
       </c>
       <c r="O252" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73161196361</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73499399742</v>
       </c>
       <c r="S252" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>251|Kevin|Clapton|+73161196361|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>251|Cecilia|MacDonald|+73499399742|</v>
       </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
@@ -10646,19 +10900,19 @@
       </c>
       <c r="M253" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Evan</v>
+        <v>Josephine</v>
       </c>
       <c r="N253" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Hodges</v>
+        <v>Arthurs</v>
       </c>
       <c r="O253" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+72057856971</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73799710950</v>
       </c>
       <c r="S253" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>252|Evan|Hodges|+72057856971|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>252|Josephine|Arthurs|+73799710950|</v>
       </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
@@ -10679,19 +10933,19 @@
       </c>
       <c r="M254" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Donald</v>
+        <v>Adelina</v>
       </c>
       <c r="N254" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gill</v>
+        <v>Leapman</v>
       </c>
       <c r="O254" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+73078644511</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+73362452161</v>
       </c>
       <c r="S254" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>253|Donald|Gill|+73078644511|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>253|Adelina|Leapman|+73362452161|</v>
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
@@ -10712,19 +10966,19 @@
       </c>
       <c r="M255" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Paige</v>
+        <v>Robert</v>
       </c>
       <c r="N255" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Finch</v>
+        <v>Kirk</v>
       </c>
       <c r="O255" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77499285189</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+77975463123</v>
       </c>
       <c r="S255" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>254|Paige|Finch|+77499285189|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>254|Robert|Kirk|+77975463123|</v>
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
@@ -10745,19 +10999,19 @@
       </c>
       <c r="M256" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Amanda</v>
+        <v>Bridjet</v>
       </c>
       <c r="N256" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Baldwin</v>
+        <v>Keat</v>
       </c>
       <c r="O256" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+79198706586</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+71621812491</v>
       </c>
       <c r="S256" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>255|Amanda|Baldwin|+79198706586|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>255|Bridjet|Keat|+71621812491|</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
@@ -10772,19 +11026,19 @@
       </c>
       <c r="M257" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Violet</v>
+        <v>Connor</v>
       </c>
       <c r="N257" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Keat</v>
+        <v>Black</v>
       </c>
       <c r="O257" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+78941797802</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72828597584</v>
       </c>
       <c r="S257" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>256|Violet|Keat|+78941797802|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>256|Connor|Black|+72828597584|</v>
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
@@ -10799,19 +11053,19 @@
       </c>
       <c r="M258" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Claire</v>
+        <v>Virginia</v>
       </c>
       <c r="N258" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fleming</v>
+        <v>Hardman</v>
       </c>
       <c r="O258" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>+77839938003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>+72025521774</v>
       </c>
       <c r="S258" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>257|Claire|Fleming|+77839938003|</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>257|Virginia|Hardman|+72025521774|</v>
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
@@ -10826,19 +11080,19 @@
       </c>
       <c r="M259" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Maya</v>
+        <v>Rodrigo</v>
       </c>
       <c r="N259" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Winter</v>
+        <v>Turner</v>
       </c>
       <c r="O259" t="str">
-        <f t="shared" ref="O259:O322" ca="1" si="8">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+79242723171</v>
+        <f t="shared" ref="O259:O322" ca="1" si="9">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
+        <v>+78708511272</v>
       </c>
       <c r="S259" t="str">
-        <f t="shared" ref="S259:S322" ca="1" si="9">CONCATENATE(L259,"|",M259,"|",N259,"|",O259,"|")</f>
-        <v>258|Maya|Winter|+79242723171|</v>
+        <f t="shared" ref="S259:S322" ca="1" si="10">CONCATENATE(L259,"|",M259,"|",N259,"|",O259,"|")</f>
+        <v>258|Rodrigo|Turner|+78708511272|</v>
       </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
@@ -10853,19 +11107,19 @@
       </c>
       <c r="M260" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Cecilia</v>
+        <v>Natalie</v>
       </c>
       <c r="N260" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dickinson</v>
+        <v>Gilbert</v>
       </c>
       <c r="O260" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79444178705</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73930958392</v>
       </c>
       <c r="S260" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>259|Cecilia|Dickinson|+79444178705|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>259|Natalie|Gilbert|+73930958392|</v>
       </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
@@ -10880,19 +11134,19 @@
       </c>
       <c r="M261" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sara</v>
+        <v>Fred</v>
       </c>
       <c r="N261" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Brickman</v>
+        <v>Michaelson</v>
       </c>
       <c r="O261" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77564074678</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73930121031</v>
       </c>
       <c r="S261" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>260|Sara|Brickman|+77564074678|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>260|Fred|Michaelson|+73930121031|</v>
       </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
@@ -10907,19 +11161,19 @@
       </c>
       <c r="M262" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Leslie</v>
+        <v>Sharon</v>
       </c>
       <c r="N262" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Chapman</v>
+        <v>Benson</v>
       </c>
       <c r="O262" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79082290314</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76183632587</v>
       </c>
       <c r="S262" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>261|Leslie|Chapman|+79082290314|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>261|Sharon|Benson|+76183632587|</v>
       </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
@@ -10934,19 +11188,19 @@
       </c>
       <c r="M263" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Monica</v>
+        <v>Chloe</v>
       </c>
       <c r="N263" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Stanley</v>
+        <v>Reynolds</v>
       </c>
       <c r="O263" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73553960283</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75851146985</v>
       </c>
       <c r="S263" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>262|Monica|Stanley|+73553960283|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>262|Chloe|Reynolds|+75851146985|</v>
       </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
@@ -10961,19 +11215,19 @@
       </c>
       <c r="M264" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Devin</v>
+        <v>Pamela</v>
       </c>
       <c r="N264" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Foster</v>
+        <v>Mathews</v>
       </c>
       <c r="O264" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78062356762</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+78755379013</v>
       </c>
       <c r="S264" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>263|Devin|Foster|+78062356762|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>263|Pamela|Mathews|+78755379013|</v>
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
@@ -10988,19 +11242,19 @@
       </c>
       <c r="M265" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hannah</v>
+        <v>Mabel</v>
       </c>
       <c r="N265" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Campbell</v>
+        <v>Keat</v>
       </c>
       <c r="O265" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79539094963</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79836873577</v>
       </c>
       <c r="S265" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>264|Hannah|Campbell|+79539094963|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>264|Mabel|Keat|+79836873577|</v>
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
@@ -11015,19 +11269,19 @@
       </c>
       <c r="M266" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Reginald</v>
+        <v>Antonio</v>
       </c>
       <c r="N266" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Aldridge</v>
+        <v>Waller</v>
       </c>
       <c r="O266" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72030811481</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75753287380</v>
       </c>
       <c r="S266" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>265|Reginald|Aldridge|+72030811481|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>265|Antonio|Waller|+75753287380|</v>
       </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
@@ -11042,19 +11296,19 @@
       </c>
       <c r="M267" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Elijah</v>
+        <v>Bryan</v>
       </c>
       <c r="N267" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Thomson</v>
+        <v>Derrick</v>
       </c>
       <c r="O267" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79507110446</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+78759247203</v>
       </c>
       <c r="S267" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>266|Elijah|Thomson|+79507110446|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>266|Bryan|Derrick|+78759247203|</v>
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
@@ -11069,19 +11323,19 @@
       </c>
       <c r="M268" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Joseph</v>
+        <v>Kevin</v>
       </c>
       <c r="N268" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Derrick</v>
+        <v>Garrison</v>
       </c>
       <c r="O268" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77457973538</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73276882412</v>
       </c>
       <c r="S268" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>267|Joseph|Derrick|+77457973538|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>267|Kevin|Garrison|+73276882412|</v>
       </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
@@ -11096,19 +11350,19 @@
       </c>
       <c r="M269" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Allison</v>
+        <v>Landon</v>
       </c>
       <c r="N269" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Watson</v>
+        <v>Mackenzie</v>
       </c>
       <c r="O269" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71838508573</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+72261032770</v>
       </c>
       <c r="S269" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>268|Allison|Watson|+71838508573|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>268|Landon|Mackenzie|+72261032770|</v>
       </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
@@ -11123,19 +11377,19 @@
       </c>
       <c r="M270" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Diego</v>
+        <v>Xavier</v>
       </c>
       <c r="N270" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>MacDonald</v>
+        <v>Alsopp</v>
       </c>
       <c r="O270" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73735210323</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75320978618</v>
       </c>
       <c r="S270" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>269|Diego|MacDonald|+73735210323|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>269|Xavier|Alsopp|+75320978618|</v>
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
@@ -11150,19 +11404,19 @@
       </c>
       <c r="M271" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Kaitlyn</v>
+        <v>Gabriel</v>
       </c>
       <c r="N271" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bargeman</v>
+        <v>Chesterton</v>
       </c>
       <c r="O271" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77269023067</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+77121492868</v>
       </c>
       <c r="S271" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>270|Kaitlyn|Bargeman|+77269023067|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>270|Gabriel|Chesterton|+77121492868|</v>
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
@@ -11177,19 +11431,19 @@
       </c>
       <c r="M272" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dennis</v>
+        <v>Isabel</v>
       </c>
       <c r="N272" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Russel</v>
+        <v>Daniels</v>
       </c>
       <c r="O272" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+76494655842</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73783970074</v>
       </c>
       <c r="S272" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>271|Dennis|Russel|+76494655842|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>271|Isabel|Daniels|+73783970074|</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
@@ -11204,19 +11458,19 @@
       </c>
       <c r="M273" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alfred</v>
+        <v>James</v>
       </c>
       <c r="N273" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Russel</v>
+        <v>Campbell</v>
       </c>
       <c r="O273" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79231259728</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+71516719895</v>
       </c>
       <c r="S273" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>272|Alfred|Russel|+79231259728|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>272|James|Campbell|+71516719895|</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
@@ -11231,19 +11485,19 @@
       </c>
       <c r="M274" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Winifred</v>
+        <v>Erin</v>
       </c>
       <c r="N274" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Laird</v>
+        <v>Richards</v>
       </c>
       <c r="O274" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72612762673</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73853425766</v>
       </c>
       <c r="S274" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>273|Winifred|Laird|+72612762673|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>273|Erin|Richards|+73853425766|</v>
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
@@ -11258,19 +11512,19 @@
       </c>
       <c r="M275" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Celia</v>
+        <v>Caleb</v>
       </c>
       <c r="N275" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Samuels</v>
+        <v>Campbell</v>
       </c>
       <c r="O275" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74299498368</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73863615431</v>
       </c>
       <c r="S275" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>274|Celia|Samuels|+74299498368|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>274|Caleb|Campbell|+73863615431|</v>
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
@@ -11285,19 +11539,19 @@
       </c>
       <c r="M276" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Zachary</v>
+        <v>Jacqueline</v>
       </c>
       <c r="N276" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Morrison</v>
+        <v>Anderson</v>
       </c>
       <c r="O276" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72524585530</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+74245987882</v>
       </c>
       <c r="S276" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>275|Zachary|Morrison|+72524585530|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>275|Jacqueline|Anderson|+74245987882|</v>
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
@@ -11312,19 +11566,19 @@
       </c>
       <c r="M277" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lorna</v>
+        <v>Raymond</v>
       </c>
       <c r="N277" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fulton</v>
+        <v>Howard</v>
       </c>
       <c r="O277" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+75480921023</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79655415946</v>
       </c>
       <c r="S277" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>276|Lorna|Fulton|+75480921023|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>276|Raymond|Howard|+79655415946|</v>
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
@@ -11339,19 +11593,19 @@
       </c>
       <c r="M278" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Rita</v>
+        <v>Jacqueline</v>
       </c>
       <c r="N278" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Benson</v>
+        <v>Dodson</v>
       </c>
       <c r="O278" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+75134238127</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73408430525</v>
       </c>
       <c r="S278" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>277|Rita|Benson|+75134238127|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>277|Jacqueline|Dodson|+73408430525|</v>
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
@@ -11366,19 +11620,19 @@
       </c>
       <c r="M279" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Pamela</v>
+        <v>Jada</v>
       </c>
       <c r="N279" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gardner</v>
+        <v>Dean</v>
       </c>
       <c r="O279" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71147409639</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+74634117987</v>
       </c>
       <c r="S279" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>278|Pamela|Gardner|+71147409639|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>278|Jada|Dean|+74634117987|</v>
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
@@ -11393,19 +11647,19 @@
       </c>
       <c r="M280" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alex</v>
+        <v>Ann</v>
       </c>
       <c r="N280" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Bush</v>
+        <v>Donovan</v>
       </c>
       <c r="O280" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+75046982734</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+77941940667</v>
       </c>
       <c r="S280" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>279|Alex|Bush|+75046982734|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>279|Ann|Donovan|+77941940667|</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
@@ -11420,19 +11674,19 @@
       </c>
       <c r="M281" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Molly</v>
+        <v>Lucy</v>
       </c>
       <c r="N281" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Mercer</v>
+        <v>Nevill</v>
       </c>
       <c r="O281" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+76176493842</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73023001243</v>
       </c>
       <c r="S281" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>280|Molly|Mercer|+76176493842|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>280|Lucy|Nevill|+73023001243|</v>
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
@@ -11447,19 +11701,19 @@
       </c>
       <c r="M282" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Laura</v>
+        <v>Maria</v>
       </c>
       <c r="N282" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Smith</v>
+        <v>Faber</v>
       </c>
       <c r="O282" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77234221020</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75923537258</v>
       </c>
       <c r="S282" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>281|Laura|Smith|+77234221020|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>281|Maria|Faber|+75923537258|</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
@@ -11474,19 +11728,19 @@
       </c>
       <c r="M283" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Peter</v>
+        <v>Daisy</v>
       </c>
       <c r="N283" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lamberts</v>
+        <v>Richards</v>
       </c>
       <c r="O283" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+75744894984</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73371535637</v>
       </c>
       <c r="S283" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>282|Peter|Lamberts|+75744894984|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>282|Daisy|Richards|+73371535637|</v>
       </c>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
@@ -11501,19 +11755,19 @@
       </c>
       <c r="M284" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Carter</v>
+        <v>Cyrus</v>
       </c>
       <c r="N284" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Shorter</v>
+        <v>Russel</v>
       </c>
       <c r="O284" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73409729470</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76894237262</v>
       </c>
       <c r="S284" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>283|Carter|Shorter|+73409729470|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>283|Cyrus|Russel|+76894237262|</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
@@ -11528,19 +11782,19 @@
       </c>
       <c r="M285" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Carlos</v>
+        <v>Leonars</v>
       </c>
       <c r="N285" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fisher</v>
+        <v>Hamphrey</v>
       </c>
       <c r="O285" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71717949844</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+72264890405</v>
       </c>
       <c r="S285" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>284|Carlos|Fisher|+71717949844|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>284|Leonars|Hamphrey|+72264890405|</v>
       </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
@@ -11555,19 +11809,19 @@
       </c>
       <c r="M286" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Hayden</v>
+        <v>Ariana</v>
       </c>
       <c r="N286" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Nathan</v>
+        <v>Garrison</v>
       </c>
       <c r="O286" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72398580075</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73307574368</v>
       </c>
       <c r="S286" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>285|Hayden|Nathan|+72398580075|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>285|Ariana|Garrison|+73307574368|</v>
       </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
@@ -11582,19 +11836,19 @@
       </c>
       <c r="M287" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sebastian</v>
+        <v>Aidan</v>
       </c>
       <c r="N287" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Stevenson</v>
+        <v>Hoggarth</v>
       </c>
       <c r="O287" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74929850381</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73661020170</v>
       </c>
       <c r="S287" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>286|Sebastian|Stevenson|+74929850381|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>286|Aidan|Hoggarth|+73661020170|</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
@@ -11609,19 +11863,19 @@
       </c>
       <c r="M288" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Fiona</v>
+        <v>Antonio</v>
       </c>
       <c r="N288" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Oliver</v>
+        <v>Milton</v>
       </c>
       <c r="O288" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72674557515</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75765419959</v>
       </c>
       <c r="S288" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>287|Fiona|Oliver|+72674557515|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>287|Antonio|Milton|+75765419959|</v>
       </c>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
@@ -11636,19 +11890,19 @@
       </c>
       <c r="M289" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Virginia</v>
+        <v>Natalie</v>
       </c>
       <c r="N289" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Tracey</v>
+        <v>Dyson</v>
       </c>
       <c r="O289" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73351665798</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+74122908369</v>
       </c>
       <c r="S289" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>288|Virginia|Tracey|+73351665798|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>288|Natalie|Dyson|+74122908369|</v>
       </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
@@ -11663,19 +11917,19 @@
       </c>
       <c r="M290" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Samuel</v>
+        <v>Wyatt</v>
       </c>
       <c r="N290" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Coleman</v>
+        <v>WifKinson</v>
       </c>
       <c r="O290" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71276308073</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75149349779</v>
       </c>
       <c r="S290" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>289|Samuel|Coleman|+71276308073|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>289|Wyatt|WifKinson|+75149349779|</v>
       </c>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
@@ -11690,19 +11944,19 @@
       </c>
       <c r="M291" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sofia</v>
+        <v>Bruce</v>
       </c>
       <c r="N291" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kelly</v>
+        <v>Bradshaw</v>
       </c>
       <c r="O291" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72571711367</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79786137614</v>
       </c>
       <c r="S291" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>290|Sofia|Kelly|+72571711367|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>290|Bruce|Bradshaw|+79786137614|</v>
       </c>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
@@ -11717,19 +11971,19 @@
       </c>
       <c r="M292" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>George</v>
+        <v>Diana</v>
       </c>
       <c r="N292" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Page</v>
+        <v>Sheldon</v>
       </c>
       <c r="O292" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78671296733</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+72367636634</v>
       </c>
       <c r="S292" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>291|George|Page|+78671296733|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>291|Diana|Sheldon|+72367636634|</v>
       </c>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
@@ -11744,19 +11998,19 @@
       </c>
       <c r="M293" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Edward</v>
+        <v>Hannah</v>
       </c>
       <c r="N293" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Lamberts</v>
+        <v>Derrick</v>
       </c>
       <c r="O293" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+76737077629</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+71284122311</v>
       </c>
       <c r="S293" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>292|Edward|Lamberts|+76737077629|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>292|Hannah|Derrick|+71284122311|</v>
       </c>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
@@ -11771,19 +12025,19 @@
       </c>
       <c r="M294" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Oswald</v>
+        <v>Reginald</v>
       </c>
       <c r="N294" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Donovan</v>
+        <v>Coleman</v>
       </c>
       <c r="O294" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72316580880</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76362920110</v>
       </c>
       <c r="S294" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>293|Oswald|Donovan|+72316580880|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>293|Reginald|Coleman|+76362920110|</v>
       </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
@@ -11798,19 +12052,19 @@
       </c>
       <c r="M295" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lucy</v>
+        <v>Norman</v>
       </c>
       <c r="N295" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Flannagan</v>
+        <v>Michaelson</v>
       </c>
       <c r="O295" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78533025688</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75444389472</v>
       </c>
       <c r="S295" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>294|Lucy|Flannagan|+78533025688|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>294|Norman|Michaelson|+75444389472|</v>
       </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
@@ -11825,19 +12079,19 @@
       </c>
       <c r="M296" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Leonora</v>
+        <v>Sara</v>
       </c>
       <c r="N296" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Jones</v>
+        <v>Quincy</v>
       </c>
       <c r="O296" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79160049093</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+72350724196</v>
       </c>
       <c r="S296" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>295|Leonora|Jones|+79160049093|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>295|Sara|Quincy|+72350724196|</v>
       </c>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
@@ -11852,19 +12106,19 @@
       </c>
       <c r="M297" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jordan</v>
+        <v>Daniel</v>
       </c>
       <c r="N297" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Goodman</v>
+        <v>Warren</v>
       </c>
       <c r="O297" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79718471574</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75427339677</v>
       </c>
       <c r="S297" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>296|Jordan|Goodman|+79718471574|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>296|Daniel|Warren|+75427339677|</v>
       </c>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
@@ -11879,19 +12133,19 @@
       </c>
       <c r="M298" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Chase</v>
+        <v>Noah</v>
       </c>
       <c r="N298" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Brooks</v>
+        <v>Campbell</v>
       </c>
       <c r="O298" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78401594092</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76306578504</v>
       </c>
       <c r="S298" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>297|Chase|Brooks|+78401594092|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>297|Noah|Campbell|+76306578504|</v>
       </c>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
@@ -11906,19 +12160,19 @@
       </c>
       <c r="M299" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sophia</v>
+        <v>George</v>
       </c>
       <c r="N299" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Vance</v>
+        <v>Miln</v>
       </c>
       <c r="O299" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71512951715</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+78225816210</v>
       </c>
       <c r="S299" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>298|Sophia|Vance|+71512951715|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>298|George|Miln|+78225816210|</v>
       </c>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
@@ -11933,19 +12187,19 @@
       </c>
       <c r="M300" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Laura</v>
+        <v>Susan</v>
       </c>
       <c r="N300" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Russel</v>
+        <v>Archibald</v>
       </c>
       <c r="O300" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79938947718</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76072743318</v>
       </c>
       <c r="S300" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>299|Laura|Russel|+79938947718|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>299|Susan|Archibald|+76072743318|</v>
       </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
@@ -11960,19 +12214,19 @@
       </c>
       <c r="M301" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Fiona</v>
+        <v>Sylvia</v>
       </c>
       <c r="N301" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Babcock</v>
+        <v>Forster</v>
       </c>
       <c r="O301" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74296064970</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75633680006</v>
       </c>
       <c r="S301" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>300|Fiona|Babcock|+74296064970|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>300|Sylvia|Forster|+75633680006|</v>
       </c>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
@@ -11987,19 +12241,19 @@
       </c>
       <c r="M302" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jane</v>
+        <v>Ariana</v>
       </c>
       <c r="N302" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dodson</v>
+        <v>Enderson</v>
       </c>
       <c r="O302" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72709662562</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76713435858</v>
       </c>
       <c r="S302" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>301|Jane|Dodson|+72709662562|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>301|Ariana|Enderson|+76713435858|</v>
       </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
@@ -12014,19 +12268,19 @@
       </c>
       <c r="M303" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Sybil</v>
+        <v>Sharon</v>
       </c>
       <c r="N303" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Kennett</v>
+        <v>Gill</v>
       </c>
       <c r="O303" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74463405039</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75432087277</v>
       </c>
       <c r="S303" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>302|Sybil|Kennett|+74463405039|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>302|Sharon|Gill|+75432087277|</v>
       </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
@@ -12041,19 +12295,19 @@
       </c>
       <c r="M304" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Nancy</v>
+        <v>Justin</v>
       </c>
       <c r="N304" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Gate</v>
+        <v>Keat</v>
       </c>
       <c r="O304" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78505459165</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79820192899</v>
       </c>
       <c r="S304" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>303|Nancy|Gate|+78505459165|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>303|Justin|Keat|+79820192899|</v>
       </c>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
@@ -12068,19 +12322,19 @@
       </c>
       <c r="M305" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Christine</v>
+        <v>Ethan</v>
       </c>
       <c r="N305" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Cook</v>
+        <v>Owen</v>
       </c>
       <c r="O305" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77811450200</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76636166212</v>
       </c>
       <c r="S305" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>304|Christine|Cook|+77811450200|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>304|Ethan|Owen|+76636166212|</v>
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
@@ -12095,19 +12349,19 @@
       </c>
       <c r="M306" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Makayla</v>
+        <v>Timothy</v>
       </c>
       <c r="N306" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Faber</v>
+        <v>Milton</v>
       </c>
       <c r="O306" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74495362140</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+72626140304</v>
       </c>
       <c r="S306" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>305|Makayla|Faber|+74495362140|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>305|Timothy|Milton|+72626140304|</v>
       </c>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
@@ -12122,19 +12376,19 @@
       </c>
       <c r="M307" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lynn</v>
+        <v>Kyle</v>
       </c>
       <c r="N307" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Backer</v>
+        <v>Gilmore</v>
       </c>
       <c r="O307" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73775539156</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79721849030</v>
       </c>
       <c r="S307" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>306|Lynn|Backer|+73775539156|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>306|Kyle|Gilmore|+79721849030|</v>
       </c>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
@@ -12149,19 +12403,19 @@
       </c>
       <c r="M308" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Bailey</v>
+        <v>Richard</v>
       </c>
       <c r="N308" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ramacey</v>
+        <v>Carey</v>
       </c>
       <c r="O308" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73835482275</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+77914354474</v>
       </c>
       <c r="S308" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>307|Bailey|Ramacey|+73835482275|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>307|Richard|Carey|+77914354474|</v>
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
@@ -12176,19 +12430,19 @@
       </c>
       <c r="M309" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Julia</v>
+        <v>Fiona</v>
       </c>
       <c r="N309" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Clapton</v>
+        <v>Croftoon</v>
       </c>
       <c r="O309" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+72518833846</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75087576015</v>
       </c>
       <c r="S309" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>308|Julia|Clapton|+72518833846|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>308|Fiona|Croftoon|+75087576015|</v>
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
@@ -12203,19 +12457,19 @@
       </c>
       <c r="M310" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Xavier</v>
+        <v>Benjamin</v>
       </c>
       <c r="N310" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Timmons</v>
+        <v>Richards</v>
       </c>
       <c r="O310" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77587311212</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79593362141</v>
       </c>
       <c r="S310" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>309|Xavier|Timmons|+77587311212|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>309|Benjamin|Richards|+79593362141|</v>
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
@@ -12230,19 +12484,19 @@
       </c>
       <c r="M311" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Abigail</v>
+        <v>Christian</v>
       </c>
       <c r="N311" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Abramson</v>
+        <v>Osborne</v>
       </c>
       <c r="O311" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77564000256</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75333524112</v>
       </c>
       <c r="S311" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>310|Abigail|Abramson|+77564000256|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>310|Christian|Osborne|+75333524112|</v>
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
@@ -12257,19 +12511,19 @@
       </c>
       <c r="M312" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Wyatt</v>
+        <v>Kevin</v>
       </c>
       <c r="N312" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Chesterton</v>
+        <v>Young</v>
       </c>
       <c r="O312" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+76865900420</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+71006000320</v>
       </c>
       <c r="S312" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>311|Wyatt|Chesterton|+76865900420|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>311|Kevin|Young|+71006000320|</v>
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
@@ -12284,19 +12538,19 @@
       </c>
       <c r="M313" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Dominic</v>
+        <v>Jordan</v>
       </c>
       <c r="N313" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Miers</v>
+        <v>Nash</v>
       </c>
       <c r="O313" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74125647994</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+78550557281</v>
       </c>
       <c r="S313" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>312|Dominic|Miers|+74125647994|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>312|Jordan|Nash|+78550557281|</v>
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
@@ -12311,19 +12565,19 @@
       </c>
       <c r="M314" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Molly</v>
+        <v>Jordan</v>
       </c>
       <c r="N314" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ralphs</v>
+        <v>Gilmore</v>
       </c>
       <c r="O314" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78815585477</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75587978482</v>
       </c>
       <c r="S314" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>313|Molly|Ralphs|+78815585477|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>313|Jordan|Gilmore|+75587978482|</v>
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
@@ -12338,19 +12592,19 @@
       </c>
       <c r="M315" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lauren</v>
+        <v>Emma</v>
       </c>
       <c r="N315" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Nyman</v>
+        <v>Babcock</v>
       </c>
       <c r="O315" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+78218221338</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79327754990</v>
       </c>
       <c r="S315" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>314|Lauren|Nyman|+78218221338|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>314|Emma|Babcock|+79327754990|</v>
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
@@ -12365,19 +12619,19 @@
       </c>
       <c r="M316" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Gabrielle</v>
+        <v>Charles</v>
       </c>
       <c r="N316" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Black</v>
+        <v>Higgins</v>
       </c>
       <c r="O316" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71041599904</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+76792749925</v>
       </c>
       <c r="S316" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>315|Gabrielle|Black|+71041599904|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>315|Charles|Higgins|+76792749925|</v>
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
@@ -12386,19 +12640,19 @@
       </c>
       <c r="M317" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Penelope</v>
+        <v>Diana</v>
       </c>
       <c r="N317" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Nicholson</v>
+        <v>Arthurs</v>
       </c>
       <c r="O317" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+74630242172</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+75864759343</v>
       </c>
       <c r="S317" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>316|Penelope|Nicholson|+74630242172|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>316|Diana|Arthurs|+75864759343|</v>
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
@@ -12407,19 +12661,19 @@
       </c>
       <c r="M318" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alan</v>
+        <v>Laura</v>
       </c>
       <c r="N318" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Roger</v>
+        <v>Owen</v>
       </c>
       <c r="O318" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+73306398204</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73043682380</v>
       </c>
       <c r="S318" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>317|Alan|Roger|+73306398204|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>317|Laura|Owen|+73043682380|</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
@@ -12428,19 +12682,19 @@
       </c>
       <c r="M319" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Josephine</v>
+        <v>Belinda</v>
       </c>
       <c r="N319" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Page</v>
+        <v>Jenkin</v>
       </c>
       <c r="O319" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+71514997865</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+71434376543</v>
       </c>
       <c r="S319" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>318|Josephine|Page|+71514997865|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>318|Belinda|Jenkin|+71434376543|</v>
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
@@ -12449,19 +12703,19 @@
       </c>
       <c r="M320" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Gerld</v>
+        <v>Alise</v>
       </c>
       <c r="N320" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Parson</v>
+        <v>Davidson</v>
       </c>
       <c r="O320" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77500090481</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+74748325704</v>
       </c>
       <c r="S320" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>319|Gerld|Parson|+77500090481|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>319|Alise|Davidson|+74748325704|</v>
       </c>
     </row>
     <row r="321" spans="12:19" x14ac:dyDescent="0.25">
@@ -12470,19 +12724,19 @@
       </c>
       <c r="M321" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Lucy</v>
+        <v>Autumn</v>
       </c>
       <c r="N321" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fulton</v>
+        <v>Addington</v>
       </c>
       <c r="O321" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+79242044347</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+73759451243</v>
       </c>
       <c r="S321" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>320|Lucy|Fulton|+79242044347|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>320|Autumn|Addington|+73759451243|</v>
       </c>
     </row>
     <row r="322" spans="12:19" x14ac:dyDescent="0.25">
@@ -12491,19 +12745,19 @@
       </c>
       <c r="M322" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Isaiah</v>
+        <v>Dorothy</v>
       </c>
       <c r="N322" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Becker</v>
+        <v>Quincy</v>
       </c>
       <c r="O322" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>+77110976554</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>+79925885958</v>
       </c>
       <c r="S322" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>321|Isaiah|Becker|+77110976554|</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>321|Dorothy|Quincy|+79925885958|</v>
       </c>
     </row>
     <row r="323" spans="12:19" x14ac:dyDescent="0.25">
@@ -12512,19 +12766,19 @@
       </c>
       <c r="M323" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jack</v>
+        <v>Cyrus</v>
       </c>
       <c r="N323" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Douglas</v>
+        <v>Becker</v>
       </c>
       <c r="O323" t="str">
-        <f t="shared" ref="O323:O331" ca="1" si="10">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
-        <v>+77360288205</v>
+        <f t="shared" ref="O323:O331" ca="1" si="11">_xlfn.CONCAT("+7",TEXT(RANDBETWEEN(1000000000,9999999999),0))</f>
+        <v>+74729543015</v>
       </c>
       <c r="S323" t="str">
-        <f t="shared" ref="S323:S331" ca="1" si="11">CONCATENATE(L323,"|",M323,"|",N323,"|",O323,"|")</f>
-        <v>322|Jack|Douglas|+77360288205|</v>
+        <f t="shared" ref="S323:S331" ca="1" si="12">CONCATENATE(L323,"|",M323,"|",N323,"|",O323,"|")</f>
+        <v>322|Cyrus|Becker|+74729543015|</v>
       </c>
     </row>
     <row r="324" spans="12:19" x14ac:dyDescent="0.25">
@@ -12533,19 +12787,19 @@
       </c>
       <c r="M324" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Norman</v>
+        <v>Jocelyn</v>
       </c>
       <c r="N324" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Saunder</v>
+        <v>Ellington</v>
       </c>
       <c r="O324" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+78815992152</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+76483697563</v>
       </c>
       <c r="S324" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>323|Norman|Saunder|+78815992152|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>323|Jocelyn|Ellington|+76483697563|</v>
       </c>
     </row>
     <row r="325" spans="12:19" x14ac:dyDescent="0.25">
@@ -12554,19 +12808,19 @@
       </c>
       <c r="M325" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Luccile</v>
+        <v>Andrew</v>
       </c>
       <c r="N325" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Pass</v>
+        <v>Lamberts</v>
       </c>
       <c r="O325" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+72132853392</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+73678065831</v>
       </c>
       <c r="S325" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>324|Luccile|Pass|+72132853392|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>324|Andrew|Lamberts|+73678065831|</v>
       </c>
     </row>
     <row r="326" spans="12:19" x14ac:dyDescent="0.25">
@@ -12575,19 +12829,19 @@
       </c>
       <c r="M326" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Monica</v>
+        <v>Nicholas</v>
       </c>
       <c r="N326" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Ward</v>
+        <v>Lewin</v>
       </c>
       <c r="O326" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+76839553899</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+73567610669</v>
       </c>
       <c r="S326" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>325|Monica|Ward|+76839553899|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>325|Nicholas|Lewin|+73567610669|</v>
       </c>
     </row>
     <row r="327" spans="12:19" x14ac:dyDescent="0.25">
@@ -12596,19 +12850,19 @@
       </c>
       <c r="M327" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Susan</v>
+        <v>Brian</v>
       </c>
       <c r="N327" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Fitzgerald</v>
+        <v>Atcheson</v>
       </c>
       <c r="O327" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+76066457021</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+77915115854</v>
       </c>
       <c r="S327" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>326|Susan|Fitzgerald|+76066457021|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>326|Brian|Atcheson|+77915115854|</v>
       </c>
     </row>
     <row r="328" spans="12:19" x14ac:dyDescent="0.25">
@@ -12617,19 +12871,19 @@
       </c>
       <c r="M328" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Samantha</v>
+        <v>Allison</v>
       </c>
       <c r="N328" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Taylor</v>
+        <v>Faber</v>
       </c>
       <c r="O328" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+73399241098</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+74879094863</v>
       </c>
       <c r="S328" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>327|Samantha|Taylor|+73399241098|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>327|Allison|Faber|+74879094863|</v>
       </c>
     </row>
     <row r="329" spans="12:19" x14ac:dyDescent="0.25">
@@ -12638,19 +12892,19 @@
       </c>
       <c r="M329" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Jessica</v>
+        <v>Yvonne</v>
       </c>
       <c r="N329" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Dean</v>
+        <v>Calhoun</v>
       </c>
       <c r="O329" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+78716528209</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+79517514969</v>
       </c>
       <c r="S329" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>328|Jessica|Dean|+78716528209|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>328|Yvonne|Calhoun|+79517514969|</v>
       </c>
     </row>
     <row r="330" spans="12:19" x14ac:dyDescent="0.25">
@@ -12659,19 +12913,19 @@
       </c>
       <c r="M330" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Ava</v>
+        <v>Brandon</v>
       </c>
       <c r="N330" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>Durham</v>
+        <v>Kirk</v>
       </c>
       <c r="O330" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+79523311262</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+78274178534</v>
       </c>
       <c r="S330" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>329|Ava|Durham|+79523311262|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>329|Brandon|Kirk|+78274178534|</v>
       </c>
     </row>
     <row r="331" spans="12:19" x14ac:dyDescent="0.25">
@@ -12680,24 +12934,24 @@
       </c>
       <c r="M331" t="str">
         <f ca="1">INDEX(Таблица2[имя],MATCH(RANDBETWEEN(1,MAX(Таблица2[[номер ]])),Таблица2[[номер ]],0))</f>
-        <v>Alexandra</v>
+        <v>Jordan</v>
       </c>
       <c r="N331" t="str">
         <f ca="1">INDEX(Таблица1[Surname],MATCH(RANDBETWEEN(1,MAX(Таблица1[number])),Таблица1[number],0))</f>
-        <v>MacAlister</v>
+        <v>Gate</v>
       </c>
       <c r="O331" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>+75812713145</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>+76180193396</v>
       </c>
       <c r="S331" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>330|Alexandra|MacAlister|+75812713145|</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>330|Jordan|Gate|+76180193396|</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O331">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12709,6 +12963,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF792688-EF8E-4D98-AF2C-41AB2614B08C}">
+  <dimension ref="C3:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C3:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="21" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="21" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="21" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:C46">
+    <sortCondition ref="C46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236EAA99-FB92-42C6-AAF5-D9E7A335C55F}">
   <dimension ref="A2:B256"/>
   <sheetViews>
